--- a/seller/app/modules/product/template/template.xlsx
+++ b/seller/app/modules/product/template/template.xlsx
@@ -1,204 +1,240 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mijCiTXEGSGxLyXPNKvuHmxy+25Fg=="/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
-  <si>
-    <t>productCode</t>
-  </si>
-  <si>
-    <t>productName</t>
-  </si>
-  <si>
-    <t>MRP</t>
-  </si>
-  <si>
-    <t>retailPrice</t>
-  </si>
-  <si>
-    <t>purchasePrice</t>
-  </si>
-  <si>
-    <t>HSNCode</t>
-  </si>
-  <si>
-    <t>GST_Percentage</t>
-  </si>
-  <si>
-    <t>productCategory</t>
-  </si>
-  <si>
-    <t>productSubcategory1</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>maxAllowedQty</t>
-  </si>
-  <si>
-    <t>UOM</t>
-  </si>
-  <si>
-    <t>packQty</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>breadth</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>isReturnable</t>
-  </si>
-  <si>
-    <t>returnWindow</t>
-  </si>
-  <si>
-    <t>isVegetarian</t>
-  </si>
-  <si>
-    <t>manufacturerName</t>
-  </si>
-  <si>
-    <t>manufacturedDate</t>
-  </si>
-  <si>
-    <t>nutritionalInfo</t>
-  </si>
-  <si>
-    <t>additiveInfo</t>
-  </si>
-  <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>isCancellable</t>
-  </si>
-  <si>
-    <t>longDescription</t>
-  </si>
-  <si>
-    <t>availableOnCod</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>images</t>
-  </si>
-  <si>
-    <t>manufacturerOrPackerName</t>
-  </si>
-  <si>
-    <t>manufacturerOrPackerAddress</t>
-  </si>
-  <si>
-    <t>commonOrGenericNameOfCommodity</t>
-  </si>
-  <si>
-    <t>monthYearOfManufacturePackingImport</t>
-  </si>
-  <si>
-    <t>importerFSSAILicenseNo</t>
-  </si>
-  <si>
-    <t>brandOwnerFSSAILicenseNo</t>
-  </si>
-  <si>
-    <t>data import instructions</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>bullet train 3</t>
-  </si>
-  <si>
-    <t>SDN123</t>
-  </si>
-  <si>
-    <t>F&amp;B</t>
-  </si>
-  <si>
-    <t>Oil &amp; Ghee</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>Kilogram</t>
-  </si>
-  <si>
-    <t>100 kg</t>
-  </si>
-  <si>
-    <t>12 cm</t>
-  </si>
-  <si>
-    <t>1 cm</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>PT30M</t>
-  </si>
-  <si>
-    <t>Parle</t>
-  </si>
-  <si>
-    <t>12/1/2023</t>
-  </si>
-  <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>https://media.wired.com/photos/63b8d0a771c6b526845f15a6/master/pass/CES-2023-PEUGEOT_INCEPTION_CONCEPT_2301CN202.jpg,https://media.wired.com/photos/63b8d0a771c6b526845f15a6/master/pass/CES-2023-PEUGEOT_INCEPTION_CONCEPT_2301CN202.jpg</t>
-  </si>
-  <si>
-    <t>IRCTC</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>11/23</t>
-  </si>
-  <si>
-    <t>1. images should be a public url accessible over internet
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+  <si>
+    <t xml:space="preserve">productCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">productName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retailPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purchasePrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSNCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GST_Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">productCategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">productSubcategory1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxAllowedQty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">packQty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breadth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isReturnable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returnWindow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isVegetarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturerName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturedDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nutritionalInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additiveInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isCancellable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">availableOnCod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturerOrPackerName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manufacturerOrPackerAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commonOrGenericNameOfCommodity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">monthYearOfManufacturePackingImport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">importerFSSAILicenseNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brandOwnerFSSAILicenseNo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data import instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bullet train 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F&amp;B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil &amp; Ghee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT30M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/1/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://media.wired.com/photos/63b8d0a771c6b526845f15a6/master/pass/CES-2023-PEUGEOT_INCEPTION_CONCEPT_2301CN202.jpg,https://media.wired.com/photos/63b8d0a771c6b526845f15a6/master/pass/CES-2023-PEUGEOT_INCEPTION_CONCEPT_2301CN202.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRCTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. images should be a public url accessible over internet
+2. maxAllowedQty should not be 0
+3. all fields are mandatory as of now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bullet train 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDN124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/1/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. images should be a public url accessible over internet
 2. maxAllowedQty should not be 0
 3. all fields are mandatory as of now</t>
   </si>
@@ -206,31 +242,56 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <color theme="1"/>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,296 +299,147 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="0563C1"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.75"/>
-    <col customWidth="1" min="2" max="2" width="12.25"/>
-    <col customWidth="1" min="3" max="3" width="6.25"/>
-    <col customWidth="1" min="4" max="4" width="9.63"/>
-    <col customWidth="1" min="5" max="5" width="13.13"/>
-    <col customWidth="1" min="6" max="6" width="9.38"/>
-    <col customWidth="1" min="7" max="7" width="15.38"/>
-    <col customWidth="1" min="8" max="9" width="14.88"/>
-    <col customWidth="1" min="10" max="11" width="7.88"/>
-    <col customWidth="1" min="12" max="12" width="14.25"/>
-    <col customWidth="1" min="13" max="13" width="14.75"/>
-    <col customWidth="1" min="14" max="14" width="8.25"/>
-    <col customWidth="1" min="15" max="15" width="6.25"/>
-    <col customWidth="1" min="16" max="16" width="7.38"/>
-    <col customWidth="1" min="17" max="17" width="6.25"/>
-    <col customWidth="1" min="18" max="18" width="6.63"/>
-    <col customWidth="1" min="19" max="19" width="11.63"/>
-    <col customWidth="1" min="21" max="21" width="11.63"/>
-    <col customWidth="1" min="22" max="22" width="16.88"/>
-    <col customWidth="1" min="23" max="23" width="16.25"/>
-    <col customWidth="1" min="24" max="24" width="12.13"/>
-    <col customWidth="1" min="25" max="25" width="10.25"/>
-    <col customWidth="1" min="26" max="26" width="10.88"/>
-    <col customWidth="1" min="27" max="27" width="12.25"/>
-    <col customWidth="1" min="28" max="29" width="14.0"/>
-    <col customWidth="1" min="30" max="30" width="10.25"/>
-    <col customWidth="1" min="31" max="31" width="16.0"/>
-    <col customWidth="1" min="32" max="32" width="25.75"/>
-    <col customWidth="1" min="33" max="33" width="22.88"/>
-    <col customWidth="1" min="34" max="34" width="16.0"/>
-    <col customWidth="1" min="35" max="35" width="32.5"/>
-    <col customWidth="1" min="36" max="38" width="16.0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="10.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="25.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="22.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="32.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="36" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,27 +555,27 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="3">
-        <v>12345.0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>100.0</v>
+      <c r="C2" s="3" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>100</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="3">
-        <v>5.0</v>
+      <c r="G2" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>41</v>
@@ -671,14 +583,14 @@
       <c r="I2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="3">
-        <v>100.0</v>
+      <c r="J2" s="3" t="n">
+        <v>100</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="3">
-        <v>1.0</v>
+      <c r="L2" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>44</v>
@@ -737,69 +649,145 @@
       <c r="AE2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AJ2" s="7">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AK2" s="7">
-        <v>9.87654321234567E14</v>
-      </c>
-      <c r="AL2" s="3" t="s">
+      <c r="AJ2" s="4" t="n">
+        <v>987654321234567</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>987654321234567</v>
+      </c>
+      <c r="AL2" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>12346</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>987654321234568</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>987654321234568</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -807,3052 +795,3038 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W5" s="5"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W6" s="5"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W7" s="5"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W8" s="5"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W9" s="5"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W10" s="5"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W11" s="5"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W12" s="5"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W13" s="5"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W14" s="5"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W15" s="5"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W16" s="5"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W17" s="5"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W18" s="5"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W19" s="5"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W20" s="5"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W21" s="5"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W22" s="5"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W23" s="5"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W24" s="5"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W25" s="5"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W26" s="5"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W27" s="5"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W28" s="5"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W29" s="5"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W30" s="5"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W31" s="5"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W32" s="5"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W33" s="5"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W34" s="5"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W35" s="5"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W36" s="5"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W37" s="5"/>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W38" s="5"/>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W39" s="5"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W40" s="5"/>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W41" s="5"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W42" s="5"/>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W43" s="5"/>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W44" s="5"/>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W45" s="5"/>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W46" s="5"/>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W47" s="5"/>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W48" s="5"/>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W49" s="5"/>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W50" s="5"/>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W51" s="5"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W52" s="5"/>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W53" s="5"/>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W54" s="5"/>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W55" s="5"/>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W56" s="5"/>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W57" s="5"/>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W58" s="5"/>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W59" s="5"/>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W60" s="5"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W61" s="5"/>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W62" s="5"/>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W63" s="5"/>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W64" s="5"/>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W65" s="5"/>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W66" s="5"/>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W67" s="5"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W68" s="5"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W69" s="5"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W70" s="5"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W71" s="5"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1">
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W72" s="5"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W73" s="5"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W74" s="5"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W75" s="5"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W76" s="5"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W77" s="5"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W78" s="5"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W79" s="5"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W80" s="5"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W81" s="5"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W82" s="5"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W83" s="5"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W84" s="5"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W85" s="5"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W86" s="5"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W87" s="5"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W88" s="5"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W89" s="5"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W90" s="5"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W91" s="5"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W92" s="5"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W93" s="5"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W94" s="5"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W95" s="5"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W96" s="5"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W97" s="5"/>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W98" s="5"/>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W99" s="5"/>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W100" s="5"/>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W101" s="5"/>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W102" s="5"/>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W103" s="5"/>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W104" s="5"/>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W105" s="5"/>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W106" s="5"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W107" s="5"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W108" s="5"/>
     </row>
-    <row r="109" ht="12.75" customHeight="1">
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W109" s="5"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W110" s="5"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W111" s="5"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W112" s="5"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W113" s="5"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W114" s="5"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W115" s="5"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W116" s="5"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W117" s="5"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W118" s="5"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W119" s="5"/>
     </row>
-    <row r="120" ht="12.75" customHeight="1">
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W120" s="5"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W121" s="5"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W122" s="5"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W123" s="5"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W124" s="5"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W125" s="5"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W126" s="5"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W127" s="5"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W128" s="5"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W129" s="5"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W130" s="5"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W131" s="5"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W132" s="5"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W133" s="5"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W134" s="5"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W135" s="5"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W136" s="5"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W137" s="5"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W138" s="5"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W139" s="5"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W140" s="5"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W141" s="5"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W142" s="5"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W143" s="5"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W144" s="5"/>
     </row>
-    <row r="145" ht="12.75" customHeight="1">
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W145" s="5"/>
     </row>
-    <row r="146" ht="12.75" customHeight="1">
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W146" s="5"/>
     </row>
-    <row r="147" ht="12.75" customHeight="1">
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W147" s="5"/>
     </row>
-    <row r="148" ht="12.75" customHeight="1">
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W148" s="5"/>
     </row>
-    <row r="149" ht="12.75" customHeight="1">
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W149" s="5"/>
     </row>
-    <row r="150" ht="12.75" customHeight="1">
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W150" s="5"/>
     </row>
-    <row r="151" ht="12.75" customHeight="1">
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W151" s="5"/>
     </row>
-    <row r="152" ht="12.75" customHeight="1">
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W152" s="5"/>
     </row>
-    <row r="153" ht="12.75" customHeight="1">
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W153" s="5"/>
     </row>
-    <row r="154" ht="12.75" customHeight="1">
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W154" s="5"/>
     </row>
-    <row r="155" ht="12.75" customHeight="1">
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W155" s="5"/>
     </row>
-    <row r="156" ht="12.75" customHeight="1">
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W156" s="5"/>
     </row>
-    <row r="157" ht="12.75" customHeight="1">
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W157" s="5"/>
     </row>
-    <row r="158" ht="12.75" customHeight="1">
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W158" s="5"/>
     </row>
-    <row r="159" ht="12.75" customHeight="1">
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W159" s="5"/>
     </row>
-    <row r="160" ht="12.75" customHeight="1">
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W160" s="5"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W161" s="5"/>
     </row>
-    <row r="162" ht="12.75" customHeight="1">
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W162" s="5"/>
     </row>
-    <row r="163" ht="12.75" customHeight="1">
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W163" s="5"/>
     </row>
-    <row r="164" ht="12.75" customHeight="1">
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W164" s="5"/>
     </row>
-    <row r="165" ht="12.75" customHeight="1">
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W165" s="5"/>
     </row>
-    <row r="166" ht="12.75" customHeight="1">
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W166" s="5"/>
     </row>
-    <row r="167" ht="12.75" customHeight="1">
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W167" s="5"/>
     </row>
-    <row r="168" ht="12.75" customHeight="1">
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W168" s="5"/>
     </row>
-    <row r="169" ht="12.75" customHeight="1">
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W169" s="5"/>
     </row>
-    <row r="170" ht="12.75" customHeight="1">
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W170" s="5"/>
     </row>
-    <row r="171" ht="12.75" customHeight="1">
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W171" s="5"/>
     </row>
-    <row r="172" ht="12.75" customHeight="1">
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W172" s="5"/>
     </row>
-    <row r="173" ht="12.75" customHeight="1">
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W173" s="5"/>
     </row>
-    <row r="174" ht="12.75" customHeight="1">
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W174" s="5"/>
     </row>
-    <row r="175" ht="12.75" customHeight="1">
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W175" s="5"/>
     </row>
-    <row r="176" ht="12.75" customHeight="1">
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W176" s="5"/>
     </row>
-    <row r="177" ht="12.75" customHeight="1">
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W177" s="5"/>
     </row>
-    <row r="178" ht="12.75" customHeight="1">
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W178" s="5"/>
     </row>
-    <row r="179" ht="12.75" customHeight="1">
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W179" s="5"/>
     </row>
-    <row r="180" ht="12.75" customHeight="1">
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W180" s="5"/>
     </row>
-    <row r="181" ht="12.75" customHeight="1">
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W181" s="5"/>
     </row>
-    <row r="182" ht="12.75" customHeight="1">
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W182" s="5"/>
     </row>
-    <row r="183" ht="12.75" customHeight="1">
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W183" s="5"/>
     </row>
-    <row r="184" ht="12.75" customHeight="1">
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W184" s="5"/>
     </row>
-    <row r="185" ht="12.75" customHeight="1">
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W185" s="5"/>
     </row>
-    <row r="186" ht="12.75" customHeight="1">
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W186" s="5"/>
     </row>
-    <row r="187" ht="12.75" customHeight="1">
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W187" s="5"/>
     </row>
-    <row r="188" ht="12.75" customHeight="1">
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W188" s="5"/>
     </row>
-    <row r="189" ht="12.75" customHeight="1">
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W189" s="5"/>
     </row>
-    <row r="190" ht="12.75" customHeight="1">
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W190" s="5"/>
     </row>
-    <row r="191" ht="12.75" customHeight="1">
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W191" s="5"/>
     </row>
-    <row r="192" ht="12.75" customHeight="1">
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W192" s="5"/>
     </row>
-    <row r="193" ht="12.75" customHeight="1">
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W193" s="5"/>
     </row>
-    <row r="194" ht="12.75" customHeight="1">
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W194" s="5"/>
     </row>
-    <row r="195" ht="12.75" customHeight="1">
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W195" s="5"/>
     </row>
-    <row r="196" ht="12.75" customHeight="1">
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W196" s="5"/>
     </row>
-    <row r="197" ht="12.75" customHeight="1">
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W197" s="5"/>
     </row>
-    <row r="198" ht="12.75" customHeight="1">
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W198" s="5"/>
     </row>
-    <row r="199" ht="12.75" customHeight="1">
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W199" s="5"/>
     </row>
-    <row r="200" ht="12.75" customHeight="1">
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W200" s="5"/>
     </row>
-    <row r="201" ht="12.75" customHeight="1">
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W201" s="5"/>
     </row>
-    <row r="202" ht="12.75" customHeight="1">
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W202" s="5"/>
     </row>
-    <row r="203" ht="12.75" customHeight="1">
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W203" s="5"/>
     </row>
-    <row r="204" ht="12.75" customHeight="1">
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W204" s="5"/>
     </row>
-    <row r="205" ht="12.75" customHeight="1">
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W205" s="5"/>
     </row>
-    <row r="206" ht="12.75" customHeight="1">
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W206" s="5"/>
     </row>
-    <row r="207" ht="12.75" customHeight="1">
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W207" s="5"/>
     </row>
-    <row r="208" ht="12.75" customHeight="1">
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W208" s="5"/>
     </row>
-    <row r="209" ht="12.75" customHeight="1">
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W209" s="5"/>
     </row>
-    <row r="210" ht="12.75" customHeight="1">
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W210" s="5"/>
     </row>
-    <row r="211" ht="12.75" customHeight="1">
+    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W211" s="5"/>
     </row>
-    <row r="212" ht="12.75" customHeight="1">
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W212" s="5"/>
     </row>
-    <row r="213" ht="12.75" customHeight="1">
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W213" s="5"/>
     </row>
-    <row r="214" ht="12.75" customHeight="1">
+    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W214" s="5"/>
     </row>
-    <row r="215" ht="12.75" customHeight="1">
+    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W215" s="5"/>
     </row>
-    <row r="216" ht="12.75" customHeight="1">
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W216" s="5"/>
     </row>
-    <row r="217" ht="12.75" customHeight="1">
+    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W217" s="5"/>
     </row>
-    <row r="218" ht="12.75" customHeight="1">
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W218" s="5"/>
     </row>
-    <row r="219" ht="12.75" customHeight="1">
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W219" s="5"/>
     </row>
-    <row r="220" ht="12.75" customHeight="1">
+    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W220" s="5"/>
     </row>
-    <row r="221" ht="12.75" customHeight="1">
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W221" s="5"/>
     </row>
-    <row r="222" ht="12.75" customHeight="1">
+    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W222" s="5"/>
     </row>
-    <row r="223" ht="12.75" customHeight="1">
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W223" s="5"/>
     </row>
-    <row r="224" ht="12.75" customHeight="1">
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W224" s="5"/>
     </row>
-    <row r="225" ht="12.75" customHeight="1">
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W225" s="5"/>
     </row>
-    <row r="226" ht="12.75" customHeight="1">
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W226" s="5"/>
     </row>
-    <row r="227" ht="12.75" customHeight="1">
+    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W227" s="5"/>
     </row>
-    <row r="228" ht="12.75" customHeight="1">
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W228" s="5"/>
     </row>
-    <row r="229" ht="12.75" customHeight="1">
+    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W229" s="5"/>
     </row>
-    <row r="230" ht="12.75" customHeight="1">
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W230" s="5"/>
     </row>
-    <row r="231" ht="12.75" customHeight="1">
+    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W231" s="5"/>
     </row>
-    <row r="232" ht="12.75" customHeight="1">
+    <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W232" s="5"/>
     </row>
-    <row r="233" ht="12.75" customHeight="1">
+    <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W233" s="5"/>
     </row>
-    <row r="234" ht="12.75" customHeight="1">
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W234" s="5"/>
     </row>
-    <row r="235" ht="12.75" customHeight="1">
+    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W235" s="5"/>
     </row>
-    <row r="236" ht="12.75" customHeight="1">
+    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W236" s="5"/>
     </row>
-    <row r="237" ht="12.75" customHeight="1">
+    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W237" s="5"/>
     </row>
-    <row r="238" ht="12.75" customHeight="1">
+    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W238" s="5"/>
     </row>
-    <row r="239" ht="12.75" customHeight="1">
+    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W239" s="5"/>
     </row>
-    <row r="240" ht="12.75" customHeight="1">
+    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W240" s="5"/>
     </row>
-    <row r="241" ht="12.75" customHeight="1">
+    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W241" s="5"/>
     </row>
-    <row r="242" ht="12.75" customHeight="1">
+    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W242" s="5"/>
     </row>
-    <row r="243" ht="12.75" customHeight="1">
+    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W243" s="5"/>
     </row>
-    <row r="244" ht="12.75" customHeight="1">
+    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W244" s="5"/>
     </row>
-    <row r="245" ht="12.75" customHeight="1">
+    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W245" s="5"/>
     </row>
-    <row r="246" ht="12.75" customHeight="1">
+    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W246" s="5"/>
     </row>
-    <row r="247" ht="12.75" customHeight="1">
+    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W247" s="5"/>
     </row>
-    <row r="248" ht="12.75" customHeight="1">
+    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W248" s="5"/>
     </row>
-    <row r="249" ht="12.75" customHeight="1">
+    <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W249" s="5"/>
     </row>
-    <row r="250" ht="12.75" customHeight="1">
+    <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W250" s="5"/>
     </row>
-    <row r="251" ht="12.75" customHeight="1">
+    <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W251" s="5"/>
     </row>
-    <row r="252" ht="12.75" customHeight="1">
+    <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W252" s="5"/>
     </row>
-    <row r="253" ht="12.75" customHeight="1">
+    <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W253" s="5"/>
     </row>
-    <row r="254" ht="12.75" customHeight="1">
+    <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W254" s="5"/>
     </row>
-    <row r="255" ht="12.75" customHeight="1">
+    <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W255" s="5"/>
     </row>
-    <row r="256" ht="12.75" customHeight="1">
+    <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W256" s="5"/>
     </row>
-    <row r="257" ht="12.75" customHeight="1">
+    <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W257" s="5"/>
     </row>
-    <row r="258" ht="12.75" customHeight="1">
+    <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W258" s="5"/>
     </row>
-    <row r="259" ht="12.75" customHeight="1">
+    <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W259" s="5"/>
     </row>
-    <row r="260" ht="12.75" customHeight="1">
+    <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W260" s="5"/>
     </row>
-    <row r="261" ht="12.75" customHeight="1">
+    <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W261" s="5"/>
     </row>
-    <row r="262" ht="12.75" customHeight="1">
+    <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W262" s="5"/>
     </row>
-    <row r="263" ht="12.75" customHeight="1">
+    <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W263" s="5"/>
     </row>
-    <row r="264" ht="12.75" customHeight="1">
+    <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W264" s="5"/>
     </row>
-    <row r="265" ht="12.75" customHeight="1">
+    <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W265" s="5"/>
     </row>
-    <row r="266" ht="12.75" customHeight="1">
+    <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W266" s="5"/>
     </row>
-    <row r="267" ht="12.75" customHeight="1">
+    <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W267" s="5"/>
     </row>
-    <row r="268" ht="12.75" customHeight="1">
+    <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W268" s="5"/>
     </row>
-    <row r="269" ht="12.75" customHeight="1">
+    <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W269" s="5"/>
     </row>
-    <row r="270" ht="12.75" customHeight="1">
+    <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W270" s="5"/>
     </row>
-    <row r="271" ht="12.75" customHeight="1">
+    <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W271" s="5"/>
     </row>
-    <row r="272" ht="12.75" customHeight="1">
+    <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W272" s="5"/>
     </row>
-    <row r="273" ht="12.75" customHeight="1">
+    <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W273" s="5"/>
     </row>
-    <row r="274" ht="12.75" customHeight="1">
+    <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W274" s="5"/>
     </row>
-    <row r="275" ht="12.75" customHeight="1">
+    <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W275" s="5"/>
     </row>
-    <row r="276" ht="12.75" customHeight="1">
+    <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W276" s="5"/>
     </row>
-    <row r="277" ht="12.75" customHeight="1">
+    <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W277" s="5"/>
     </row>
-    <row r="278" ht="12.75" customHeight="1">
+    <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W278" s="5"/>
     </row>
-    <row r="279" ht="12.75" customHeight="1">
+    <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W279" s="5"/>
     </row>
-    <row r="280" ht="12.75" customHeight="1">
+    <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W280" s="5"/>
     </row>
-    <row r="281" ht="12.75" customHeight="1">
+    <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W281" s="5"/>
     </row>
-    <row r="282" ht="12.75" customHeight="1">
+    <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W282" s="5"/>
     </row>
-    <row r="283" ht="12.75" customHeight="1">
+    <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W283" s="5"/>
     </row>
-    <row r="284" ht="12.75" customHeight="1">
+    <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W284" s="5"/>
     </row>
-    <row r="285" ht="12.75" customHeight="1">
+    <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W285" s="5"/>
     </row>
-    <row r="286" ht="12.75" customHeight="1">
+    <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W286" s="5"/>
     </row>
-    <row r="287" ht="12.75" customHeight="1">
+    <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W287" s="5"/>
     </row>
-    <row r="288" ht="12.75" customHeight="1">
+    <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W288" s="5"/>
     </row>
-    <row r="289" ht="12.75" customHeight="1">
+    <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W289" s="5"/>
     </row>
-    <row r="290" ht="12.75" customHeight="1">
+    <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W290" s="5"/>
     </row>
-    <row r="291" ht="12.75" customHeight="1">
+    <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W291" s="5"/>
     </row>
-    <row r="292" ht="12.75" customHeight="1">
+    <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W292" s="5"/>
     </row>
-    <row r="293" ht="12.75" customHeight="1">
+    <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W293" s="5"/>
     </row>
-    <row r="294" ht="12.75" customHeight="1">
+    <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W294" s="5"/>
     </row>
-    <row r="295" ht="12.75" customHeight="1">
+    <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W295" s="5"/>
     </row>
-    <row r="296" ht="12.75" customHeight="1">
+    <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W296" s="5"/>
     </row>
-    <row r="297" ht="12.75" customHeight="1">
+    <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W297" s="5"/>
     </row>
-    <row r="298" ht="12.75" customHeight="1">
+    <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W298" s="5"/>
     </row>
-    <row r="299" ht="12.75" customHeight="1">
+    <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W299" s="5"/>
     </row>
-    <row r="300" ht="12.75" customHeight="1">
+    <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W300" s="5"/>
     </row>
-    <row r="301" ht="12.75" customHeight="1">
+    <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W301" s="5"/>
     </row>
-    <row r="302" ht="12.75" customHeight="1">
+    <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W302" s="5"/>
     </row>
-    <row r="303" ht="12.75" customHeight="1">
+    <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W303" s="5"/>
     </row>
-    <row r="304" ht="12.75" customHeight="1">
+    <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W304" s="5"/>
     </row>
-    <row r="305" ht="12.75" customHeight="1">
+    <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W305" s="5"/>
     </row>
-    <row r="306" ht="12.75" customHeight="1">
+    <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W306" s="5"/>
     </row>
-    <row r="307" ht="12.75" customHeight="1">
+    <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W307" s="5"/>
     </row>
-    <row r="308" ht="12.75" customHeight="1">
+    <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W308" s="5"/>
     </row>
-    <row r="309" ht="12.75" customHeight="1">
+    <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W309" s="5"/>
     </row>
-    <row r="310" ht="12.75" customHeight="1">
+    <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W310" s="5"/>
     </row>
-    <row r="311" ht="12.75" customHeight="1">
+    <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W311" s="5"/>
     </row>
-    <row r="312" ht="12.75" customHeight="1">
+    <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W312" s="5"/>
     </row>
-    <row r="313" ht="12.75" customHeight="1">
+    <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W313" s="5"/>
     </row>
-    <row r="314" ht="12.75" customHeight="1">
+    <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W314" s="5"/>
     </row>
-    <row r="315" ht="12.75" customHeight="1">
+    <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W315" s="5"/>
     </row>
-    <row r="316" ht="12.75" customHeight="1">
+    <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W316" s="5"/>
     </row>
-    <row r="317" ht="12.75" customHeight="1">
+    <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W317" s="5"/>
     </row>
-    <row r="318" ht="12.75" customHeight="1">
+    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W318" s="5"/>
     </row>
-    <row r="319" ht="12.75" customHeight="1">
+    <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W319" s="5"/>
     </row>
-    <row r="320" ht="12.75" customHeight="1">
+    <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W320" s="5"/>
     </row>
-    <row r="321" ht="12.75" customHeight="1">
+    <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W321" s="5"/>
     </row>
-    <row r="322" ht="12.75" customHeight="1">
+    <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W322" s="5"/>
     </row>
-    <row r="323" ht="12.75" customHeight="1">
+    <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W323" s="5"/>
     </row>
-    <row r="324" ht="12.75" customHeight="1">
+    <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W324" s="5"/>
     </row>
-    <row r="325" ht="12.75" customHeight="1">
+    <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W325" s="5"/>
     </row>
-    <row r="326" ht="12.75" customHeight="1">
+    <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W326" s="5"/>
     </row>
-    <row r="327" ht="12.75" customHeight="1">
+    <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W327" s="5"/>
     </row>
-    <row r="328" ht="12.75" customHeight="1">
+    <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W328" s="5"/>
     </row>
-    <row r="329" ht="12.75" customHeight="1">
+    <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W329" s="5"/>
     </row>
-    <row r="330" ht="12.75" customHeight="1">
+    <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W330" s="5"/>
     </row>
-    <row r="331" ht="12.75" customHeight="1">
+    <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W331" s="5"/>
     </row>
-    <row r="332" ht="12.75" customHeight="1">
+    <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W332" s="5"/>
     </row>
-    <row r="333" ht="12.75" customHeight="1">
+    <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W333" s="5"/>
     </row>
-    <row r="334" ht="12.75" customHeight="1">
+    <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W334" s="5"/>
     </row>
-    <row r="335" ht="12.75" customHeight="1">
+    <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W335" s="5"/>
     </row>
-    <row r="336" ht="12.75" customHeight="1">
+    <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W336" s="5"/>
     </row>
-    <row r="337" ht="12.75" customHeight="1">
+    <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W337" s="5"/>
     </row>
-    <row r="338" ht="12.75" customHeight="1">
+    <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W338" s="5"/>
     </row>
-    <row r="339" ht="12.75" customHeight="1">
+    <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W339" s="5"/>
     </row>
-    <row r="340" ht="12.75" customHeight="1">
+    <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W340" s="5"/>
     </row>
-    <row r="341" ht="12.75" customHeight="1">
+    <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W341" s="5"/>
     </row>
-    <row r="342" ht="12.75" customHeight="1">
+    <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W342" s="5"/>
     </row>
-    <row r="343" ht="12.75" customHeight="1">
+    <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W343" s="5"/>
     </row>
-    <row r="344" ht="12.75" customHeight="1">
+    <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W344" s="5"/>
     </row>
-    <row r="345" ht="12.75" customHeight="1">
+    <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W345" s="5"/>
     </row>
-    <row r="346" ht="12.75" customHeight="1">
+    <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W346" s="5"/>
     </row>
-    <row r="347" ht="12.75" customHeight="1">
+    <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W347" s="5"/>
     </row>
-    <row r="348" ht="12.75" customHeight="1">
+    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W348" s="5"/>
     </row>
-    <row r="349" ht="12.75" customHeight="1">
+    <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W349" s="5"/>
     </row>
-    <row r="350" ht="12.75" customHeight="1">
+    <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W350" s="5"/>
     </row>
-    <row r="351" ht="12.75" customHeight="1">
+    <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W351" s="5"/>
     </row>
-    <row r="352" ht="12.75" customHeight="1">
+    <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W352" s="5"/>
     </row>
-    <row r="353" ht="12.75" customHeight="1">
+    <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W353" s="5"/>
     </row>
-    <row r="354" ht="12.75" customHeight="1">
+    <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W354" s="5"/>
     </row>
-    <row r="355" ht="12.75" customHeight="1">
+    <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W355" s="5"/>
     </row>
-    <row r="356" ht="12.75" customHeight="1">
+    <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W356" s="5"/>
     </row>
-    <row r="357" ht="12.75" customHeight="1">
+    <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W357" s="5"/>
     </row>
-    <row r="358" ht="12.75" customHeight="1">
+    <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W358" s="5"/>
     </row>
-    <row r="359" ht="12.75" customHeight="1">
+    <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W359" s="5"/>
     </row>
-    <row r="360" ht="12.75" customHeight="1">
+    <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W360" s="5"/>
     </row>
-    <row r="361" ht="12.75" customHeight="1">
+    <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W361" s="5"/>
     </row>
-    <row r="362" ht="12.75" customHeight="1">
+    <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W362" s="5"/>
     </row>
-    <row r="363" ht="12.75" customHeight="1">
+    <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W363" s="5"/>
     </row>
-    <row r="364" ht="12.75" customHeight="1">
+    <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W364" s="5"/>
     </row>
-    <row r="365" ht="12.75" customHeight="1">
+    <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W365" s="5"/>
     </row>
-    <row r="366" ht="12.75" customHeight="1">
+    <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W366" s="5"/>
     </row>
-    <row r="367" ht="12.75" customHeight="1">
+    <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W367" s="5"/>
     </row>
-    <row r="368" ht="12.75" customHeight="1">
+    <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W368" s="5"/>
     </row>
-    <row r="369" ht="12.75" customHeight="1">
+    <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W369" s="5"/>
     </row>
-    <row r="370" ht="12.75" customHeight="1">
+    <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W370" s="5"/>
     </row>
-    <row r="371" ht="12.75" customHeight="1">
+    <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W371" s="5"/>
     </row>
-    <row r="372" ht="12.75" customHeight="1">
+    <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W372" s="5"/>
     </row>
-    <row r="373" ht="12.75" customHeight="1">
+    <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W373" s="5"/>
     </row>
-    <row r="374" ht="12.75" customHeight="1">
+    <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W374" s="5"/>
     </row>
-    <row r="375" ht="12.75" customHeight="1">
+    <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W375" s="5"/>
     </row>
-    <row r="376" ht="12.75" customHeight="1">
+    <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W376" s="5"/>
     </row>
-    <row r="377" ht="12.75" customHeight="1">
+    <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W377" s="5"/>
     </row>
-    <row r="378" ht="12.75" customHeight="1">
+    <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W378" s="5"/>
     </row>
-    <row r="379" ht="12.75" customHeight="1">
+    <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W379" s="5"/>
     </row>
-    <row r="380" ht="12.75" customHeight="1">
+    <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W380" s="5"/>
     </row>
-    <row r="381" ht="12.75" customHeight="1">
+    <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W381" s="5"/>
     </row>
-    <row r="382" ht="12.75" customHeight="1">
+    <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W382" s="5"/>
     </row>
-    <row r="383" ht="12.75" customHeight="1">
+    <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W383" s="5"/>
     </row>
-    <row r="384" ht="12.75" customHeight="1">
+    <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W384" s="5"/>
     </row>
-    <row r="385" ht="12.75" customHeight="1">
+    <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W385" s="5"/>
     </row>
-    <row r="386" ht="12.75" customHeight="1">
+    <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W386" s="5"/>
     </row>
-    <row r="387" ht="12.75" customHeight="1">
+    <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W387" s="5"/>
     </row>
-    <row r="388" ht="12.75" customHeight="1">
+    <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W388" s="5"/>
     </row>
-    <row r="389" ht="12.75" customHeight="1">
+    <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W389" s="5"/>
     </row>
-    <row r="390" ht="12.75" customHeight="1">
+    <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W390" s="5"/>
     </row>
-    <row r="391" ht="12.75" customHeight="1">
+    <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W391" s="5"/>
     </row>
-    <row r="392" ht="12.75" customHeight="1">
+    <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W392" s="5"/>
     </row>
-    <row r="393" ht="12.75" customHeight="1">
+    <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W393" s="5"/>
     </row>
-    <row r="394" ht="12.75" customHeight="1">
+    <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W394" s="5"/>
     </row>
-    <row r="395" ht="12.75" customHeight="1">
+    <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W395" s="5"/>
     </row>
-    <row r="396" ht="12.75" customHeight="1">
+    <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W396" s="5"/>
     </row>
-    <row r="397" ht="12.75" customHeight="1">
+    <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W397" s="5"/>
     </row>
-    <row r="398" ht="12.75" customHeight="1">
+    <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W398" s="5"/>
     </row>
-    <row r="399" ht="12.75" customHeight="1">
+    <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W399" s="5"/>
     </row>
-    <row r="400" ht="12.75" customHeight="1">
+    <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W400" s="5"/>
     </row>
-    <row r="401" ht="12.75" customHeight="1">
+    <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W401" s="5"/>
     </row>
-    <row r="402" ht="12.75" customHeight="1">
+    <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W402" s="5"/>
     </row>
-    <row r="403" ht="12.75" customHeight="1">
+    <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W403" s="5"/>
     </row>
-    <row r="404" ht="12.75" customHeight="1">
+    <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W404" s="5"/>
     </row>
-    <row r="405" ht="12.75" customHeight="1">
+    <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W405" s="5"/>
     </row>
-    <row r="406" ht="12.75" customHeight="1">
+    <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W406" s="5"/>
     </row>
-    <row r="407" ht="12.75" customHeight="1">
+    <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W407" s="5"/>
     </row>
-    <row r="408" ht="12.75" customHeight="1">
+    <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W408" s="5"/>
     </row>
-    <row r="409" ht="12.75" customHeight="1">
+    <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W409" s="5"/>
     </row>
-    <row r="410" ht="12.75" customHeight="1">
+    <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W410" s="5"/>
     </row>
-    <row r="411" ht="12.75" customHeight="1">
+    <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W411" s="5"/>
     </row>
-    <row r="412" ht="12.75" customHeight="1">
+    <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W412" s="5"/>
     </row>
-    <row r="413" ht="12.75" customHeight="1">
+    <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W413" s="5"/>
     </row>
-    <row r="414" ht="12.75" customHeight="1">
+    <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W414" s="5"/>
     </row>
-    <row r="415" ht="12.75" customHeight="1">
+    <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W415" s="5"/>
     </row>
-    <row r="416" ht="12.75" customHeight="1">
+    <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W416" s="5"/>
     </row>
-    <row r="417" ht="12.75" customHeight="1">
+    <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W417" s="5"/>
     </row>
-    <row r="418" ht="12.75" customHeight="1">
+    <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W418" s="5"/>
     </row>
-    <row r="419" ht="12.75" customHeight="1">
+    <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W419" s="5"/>
     </row>
-    <row r="420" ht="12.75" customHeight="1">
+    <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W420" s="5"/>
     </row>
-    <row r="421" ht="12.75" customHeight="1">
+    <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W421" s="5"/>
     </row>
-    <row r="422" ht="12.75" customHeight="1">
+    <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W422" s="5"/>
     </row>
-    <row r="423" ht="12.75" customHeight="1">
+    <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W423" s="5"/>
     </row>
-    <row r="424" ht="12.75" customHeight="1">
+    <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W424" s="5"/>
     </row>
-    <row r="425" ht="12.75" customHeight="1">
+    <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W425" s="5"/>
     </row>
-    <row r="426" ht="12.75" customHeight="1">
+    <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W426" s="5"/>
     </row>
-    <row r="427" ht="12.75" customHeight="1">
+    <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W427" s="5"/>
     </row>
-    <row r="428" ht="12.75" customHeight="1">
+    <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W428" s="5"/>
     </row>
-    <row r="429" ht="12.75" customHeight="1">
+    <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W429" s="5"/>
     </row>
-    <row r="430" ht="12.75" customHeight="1">
+    <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W430" s="5"/>
     </row>
-    <row r="431" ht="12.75" customHeight="1">
+    <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W431" s="5"/>
     </row>
-    <row r="432" ht="12.75" customHeight="1">
+    <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W432" s="5"/>
     </row>
-    <row r="433" ht="12.75" customHeight="1">
+    <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W433" s="5"/>
     </row>
-    <row r="434" ht="12.75" customHeight="1">
+    <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W434" s="5"/>
     </row>
-    <row r="435" ht="12.75" customHeight="1">
+    <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W435" s="5"/>
     </row>
-    <row r="436" ht="12.75" customHeight="1">
+    <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W436" s="5"/>
     </row>
-    <row r="437" ht="12.75" customHeight="1">
+    <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W437" s="5"/>
     </row>
-    <row r="438" ht="12.75" customHeight="1">
+    <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W438" s="5"/>
     </row>
-    <row r="439" ht="12.75" customHeight="1">
+    <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W439" s="5"/>
     </row>
-    <row r="440" ht="12.75" customHeight="1">
+    <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W440" s="5"/>
     </row>
-    <row r="441" ht="12.75" customHeight="1">
+    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W441" s="5"/>
     </row>
-    <row r="442" ht="12.75" customHeight="1">
+    <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W442" s="5"/>
     </row>
-    <row r="443" ht="12.75" customHeight="1">
+    <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W443" s="5"/>
     </row>
-    <row r="444" ht="12.75" customHeight="1">
+    <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W444" s="5"/>
     </row>
-    <row r="445" ht="12.75" customHeight="1">
+    <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W445" s="5"/>
     </row>
-    <row r="446" ht="12.75" customHeight="1">
+    <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W446" s="5"/>
     </row>
-    <row r="447" ht="12.75" customHeight="1">
+    <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W447" s="5"/>
     </row>
-    <row r="448" ht="12.75" customHeight="1">
+    <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W448" s="5"/>
     </row>
-    <row r="449" ht="12.75" customHeight="1">
+    <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W449" s="5"/>
     </row>
-    <row r="450" ht="12.75" customHeight="1">
+    <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W450" s="5"/>
     </row>
-    <row r="451" ht="12.75" customHeight="1">
+    <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W451" s="5"/>
     </row>
-    <row r="452" ht="12.75" customHeight="1">
+    <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W452" s="5"/>
     </row>
-    <row r="453" ht="12.75" customHeight="1">
+    <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W453" s="5"/>
     </row>
-    <row r="454" ht="12.75" customHeight="1">
+    <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W454" s="5"/>
     </row>
-    <row r="455" ht="12.75" customHeight="1">
+    <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W455" s="5"/>
     </row>
-    <row r="456" ht="12.75" customHeight="1">
+    <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W456" s="5"/>
     </row>
-    <row r="457" ht="12.75" customHeight="1">
+    <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W457" s="5"/>
     </row>
-    <row r="458" ht="12.75" customHeight="1">
+    <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W458" s="5"/>
     </row>
-    <row r="459" ht="12.75" customHeight="1">
+    <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W459" s="5"/>
     </row>
-    <row r="460" ht="12.75" customHeight="1">
+    <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W460" s="5"/>
     </row>
-    <row r="461" ht="12.75" customHeight="1">
+    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W461" s="5"/>
     </row>
-    <row r="462" ht="12.75" customHeight="1">
+    <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W462" s="5"/>
     </row>
-    <row r="463" ht="12.75" customHeight="1">
+    <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W463" s="5"/>
     </row>
-    <row r="464" ht="12.75" customHeight="1">
+    <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W464" s="5"/>
     </row>
-    <row r="465" ht="12.75" customHeight="1">
+    <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W465" s="5"/>
     </row>
-    <row r="466" ht="12.75" customHeight="1">
+    <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W466" s="5"/>
     </row>
-    <row r="467" ht="12.75" customHeight="1">
+    <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W467" s="5"/>
     </row>
-    <row r="468" ht="12.75" customHeight="1">
+    <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W468" s="5"/>
     </row>
-    <row r="469" ht="12.75" customHeight="1">
+    <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W469" s="5"/>
     </row>
-    <row r="470" ht="12.75" customHeight="1">
+    <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W470" s="5"/>
     </row>
-    <row r="471" ht="12.75" customHeight="1">
+    <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W471" s="5"/>
     </row>
-    <row r="472" ht="12.75" customHeight="1">
+    <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W472" s="5"/>
     </row>
-    <row r="473" ht="12.75" customHeight="1">
+    <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W473" s="5"/>
     </row>
-    <row r="474" ht="12.75" customHeight="1">
+    <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W474" s="5"/>
     </row>
-    <row r="475" ht="12.75" customHeight="1">
+    <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W475" s="5"/>
     </row>
-    <row r="476" ht="12.75" customHeight="1">
+    <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W476" s="5"/>
     </row>
-    <row r="477" ht="12.75" customHeight="1">
+    <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W477" s="5"/>
     </row>
-    <row r="478" ht="12.75" customHeight="1">
+    <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W478" s="5"/>
     </row>
-    <row r="479" ht="12.75" customHeight="1">
+    <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W479" s="5"/>
     </row>
-    <row r="480" ht="12.75" customHeight="1">
+    <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W480" s="5"/>
     </row>
-    <row r="481" ht="12.75" customHeight="1">
+    <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W481" s="5"/>
     </row>
-    <row r="482" ht="12.75" customHeight="1">
+    <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W482" s="5"/>
     </row>
-    <row r="483" ht="12.75" customHeight="1">
+    <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W483" s="5"/>
     </row>
-    <row r="484" ht="12.75" customHeight="1">
+    <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W484" s="5"/>
     </row>
-    <row r="485" ht="12.75" customHeight="1">
+    <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W485" s="5"/>
     </row>
-    <row r="486" ht="12.75" customHeight="1">
+    <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W486" s="5"/>
     </row>
-    <row r="487" ht="12.75" customHeight="1">
+    <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W487" s="5"/>
     </row>
-    <row r="488" ht="12.75" customHeight="1">
+    <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W488" s="5"/>
     </row>
-    <row r="489" ht="12.75" customHeight="1">
+    <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W489" s="5"/>
     </row>
-    <row r="490" ht="12.75" customHeight="1">
+    <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W490" s="5"/>
     </row>
-    <row r="491" ht="12.75" customHeight="1">
+    <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W491" s="5"/>
     </row>
-    <row r="492" ht="12.75" customHeight="1">
+    <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W492" s="5"/>
     </row>
-    <row r="493" ht="12.75" customHeight="1">
+    <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W493" s="5"/>
     </row>
-    <row r="494" ht="12.75" customHeight="1">
+    <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W494" s="5"/>
     </row>
-    <row r="495" ht="12.75" customHeight="1">
+    <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W495" s="5"/>
     </row>
-    <row r="496" ht="12.75" customHeight="1">
+    <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W496" s="5"/>
     </row>
-    <row r="497" ht="12.75" customHeight="1">
+    <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W497" s="5"/>
     </row>
-    <row r="498" ht="12.75" customHeight="1">
+    <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W498" s="5"/>
     </row>
-    <row r="499" ht="12.75" customHeight="1">
+    <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W499" s="5"/>
     </row>
-    <row r="500" ht="12.75" customHeight="1">
+    <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W500" s="5"/>
     </row>
-    <row r="501" ht="12.75" customHeight="1">
+    <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W501" s="5"/>
     </row>
-    <row r="502" ht="12.75" customHeight="1">
+    <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W502" s="5"/>
     </row>
-    <row r="503" ht="12.75" customHeight="1">
+    <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W503" s="5"/>
     </row>
-    <row r="504" ht="12.75" customHeight="1">
+    <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W504" s="5"/>
     </row>
-    <row r="505" ht="12.75" customHeight="1">
+    <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W505" s="5"/>
     </row>
-    <row r="506" ht="12.75" customHeight="1">
+    <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W506" s="5"/>
     </row>
-    <row r="507" ht="12.75" customHeight="1">
+    <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W507" s="5"/>
     </row>
-    <row r="508" ht="12.75" customHeight="1">
+    <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W508" s="5"/>
     </row>
-    <row r="509" ht="12.75" customHeight="1">
+    <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W509" s="5"/>
     </row>
-    <row r="510" ht="12.75" customHeight="1">
+    <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W510" s="5"/>
     </row>
-    <row r="511" ht="12.75" customHeight="1">
+    <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W511" s="5"/>
     </row>
-    <row r="512" ht="12.75" customHeight="1">
+    <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W512" s="5"/>
     </row>
-    <row r="513" ht="12.75" customHeight="1">
+    <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W513" s="5"/>
     </row>
-    <row r="514" ht="12.75" customHeight="1">
+    <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W514" s="5"/>
     </row>
-    <row r="515" ht="12.75" customHeight="1">
+    <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W515" s="5"/>
     </row>
-    <row r="516" ht="12.75" customHeight="1">
+    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W516" s="5"/>
     </row>
-    <row r="517" ht="12.75" customHeight="1">
+    <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W517" s="5"/>
     </row>
-    <row r="518" ht="12.75" customHeight="1">
+    <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W518" s="5"/>
     </row>
-    <row r="519" ht="12.75" customHeight="1">
+    <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W519" s="5"/>
     </row>
-    <row r="520" ht="12.75" customHeight="1">
+    <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W520" s="5"/>
     </row>
-    <row r="521" ht="12.75" customHeight="1">
+    <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W521" s="5"/>
     </row>
-    <row r="522" ht="12.75" customHeight="1">
+    <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W522" s="5"/>
     </row>
-    <row r="523" ht="12.75" customHeight="1">
+    <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W523" s="5"/>
     </row>
-    <row r="524" ht="12.75" customHeight="1">
+    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W524" s="5"/>
     </row>
-    <row r="525" ht="12.75" customHeight="1">
+    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W525" s="5"/>
     </row>
-    <row r="526" ht="12.75" customHeight="1">
+    <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W526" s="5"/>
     </row>
-    <row r="527" ht="12.75" customHeight="1">
+    <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W527" s="5"/>
     </row>
-    <row r="528" ht="12.75" customHeight="1">
+    <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W528" s="5"/>
     </row>
-    <row r="529" ht="12.75" customHeight="1">
+    <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W529" s="5"/>
     </row>
-    <row r="530" ht="12.75" customHeight="1">
+    <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W530" s="5"/>
     </row>
-    <row r="531" ht="12.75" customHeight="1">
+    <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W531" s="5"/>
     </row>
-    <row r="532" ht="12.75" customHeight="1">
+    <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W532" s="5"/>
     </row>
-    <row r="533" ht="12.75" customHeight="1">
+    <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W533" s="5"/>
     </row>
-    <row r="534" ht="12.75" customHeight="1">
+    <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W534" s="5"/>
     </row>
-    <row r="535" ht="12.75" customHeight="1">
+    <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W535" s="5"/>
     </row>
-    <row r="536" ht="12.75" customHeight="1">
+    <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W536" s="5"/>
     </row>
-    <row r="537" ht="12.75" customHeight="1">
+    <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W537" s="5"/>
     </row>
-    <row r="538" ht="12.75" customHeight="1">
+    <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W538" s="5"/>
     </row>
-    <row r="539" ht="12.75" customHeight="1">
+    <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W539" s="5"/>
     </row>
-    <row r="540" ht="12.75" customHeight="1">
+    <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W540" s="5"/>
     </row>
-    <row r="541" ht="12.75" customHeight="1">
+    <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W541" s="5"/>
     </row>
-    <row r="542" ht="12.75" customHeight="1">
+    <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W542" s="5"/>
     </row>
-    <row r="543" ht="12.75" customHeight="1">
+    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W543" s="5"/>
     </row>
-    <row r="544" ht="12.75" customHeight="1">
+    <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W544" s="5"/>
     </row>
-    <row r="545" ht="12.75" customHeight="1">
+    <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W545" s="5"/>
     </row>
-    <row r="546" ht="12.75" customHeight="1">
+    <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W546" s="5"/>
     </row>
-    <row r="547" ht="12.75" customHeight="1">
+    <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W547" s="5"/>
     </row>
-    <row r="548" ht="12.75" customHeight="1">
+    <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W548" s="5"/>
     </row>
-    <row r="549" ht="12.75" customHeight="1">
+    <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W549" s="5"/>
     </row>
-    <row r="550" ht="12.75" customHeight="1">
+    <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W550" s="5"/>
     </row>
-    <row r="551" ht="12.75" customHeight="1">
+    <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W551" s="5"/>
     </row>
-    <row r="552" ht="12.75" customHeight="1">
+    <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W552" s="5"/>
     </row>
-    <row r="553" ht="12.75" customHeight="1">
+    <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W553" s="5"/>
     </row>
-    <row r="554" ht="12.75" customHeight="1">
+    <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W554" s="5"/>
     </row>
-    <row r="555" ht="12.75" customHeight="1">
+    <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W555" s="5"/>
     </row>
-    <row r="556" ht="12.75" customHeight="1">
+    <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W556" s="5"/>
     </row>
-    <row r="557" ht="12.75" customHeight="1">
+    <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W557" s="5"/>
     </row>
-    <row r="558" ht="12.75" customHeight="1">
+    <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W558" s="5"/>
     </row>
-    <row r="559" ht="12.75" customHeight="1">
+    <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W559" s="5"/>
     </row>
-    <row r="560" ht="12.75" customHeight="1">
+    <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W560" s="5"/>
     </row>
-    <row r="561" ht="12.75" customHeight="1">
+    <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W561" s="5"/>
     </row>
-    <row r="562" ht="12.75" customHeight="1">
+    <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W562" s="5"/>
     </row>
-    <row r="563" ht="12.75" customHeight="1">
+    <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W563" s="5"/>
     </row>
-    <row r="564" ht="12.75" customHeight="1">
+    <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W564" s="5"/>
     </row>
-    <row r="565" ht="12.75" customHeight="1">
+    <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W565" s="5"/>
     </row>
-    <row r="566" ht="12.75" customHeight="1">
+    <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W566" s="5"/>
     </row>
-    <row r="567" ht="12.75" customHeight="1">
+    <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W567" s="5"/>
     </row>
-    <row r="568" ht="12.75" customHeight="1">
+    <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W568" s="5"/>
     </row>
-    <row r="569" ht="12.75" customHeight="1">
+    <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W569" s="5"/>
     </row>
-    <row r="570" ht="12.75" customHeight="1">
+    <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W570" s="5"/>
     </row>
-    <row r="571" ht="12.75" customHeight="1">
+    <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W571" s="5"/>
     </row>
-    <row r="572" ht="12.75" customHeight="1">
+    <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W572" s="5"/>
     </row>
-    <row r="573" ht="12.75" customHeight="1">
+    <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W573" s="5"/>
     </row>
-    <row r="574" ht="12.75" customHeight="1">
+    <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W574" s="5"/>
     </row>
-    <row r="575" ht="12.75" customHeight="1">
+    <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W575" s="5"/>
     </row>
-    <row r="576" ht="12.75" customHeight="1">
+    <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W576" s="5"/>
     </row>
-    <row r="577" ht="12.75" customHeight="1">
+    <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W577" s="5"/>
     </row>
-    <row r="578" ht="12.75" customHeight="1">
+    <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W578" s="5"/>
     </row>
-    <row r="579" ht="12.75" customHeight="1">
+    <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W579" s="5"/>
     </row>
-    <row r="580" ht="12.75" customHeight="1">
+    <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W580" s="5"/>
     </row>
-    <row r="581" ht="12.75" customHeight="1">
+    <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W581" s="5"/>
     </row>
-    <row r="582" ht="12.75" customHeight="1">
+    <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W582" s="5"/>
     </row>
-    <row r="583" ht="12.75" customHeight="1">
+    <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W583" s="5"/>
     </row>
-    <row r="584" ht="12.75" customHeight="1">
+    <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W584" s="5"/>
     </row>
-    <row r="585" ht="12.75" customHeight="1">
+    <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W585" s="5"/>
     </row>
-    <row r="586" ht="12.75" customHeight="1">
+    <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W586" s="5"/>
     </row>
-    <row r="587" ht="12.75" customHeight="1">
+    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W587" s="5"/>
     </row>
-    <row r="588" ht="12.75" customHeight="1">
+    <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W588" s="5"/>
     </row>
-    <row r="589" ht="12.75" customHeight="1">
+    <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W589" s="5"/>
     </row>
-    <row r="590" ht="12.75" customHeight="1">
+    <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W590" s="5"/>
     </row>
-    <row r="591" ht="12.75" customHeight="1">
+    <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W591" s="5"/>
     </row>
-    <row r="592" ht="12.75" customHeight="1">
+    <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W592" s="5"/>
     </row>
-    <row r="593" ht="12.75" customHeight="1">
+    <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W593" s="5"/>
     </row>
-    <row r="594" ht="12.75" customHeight="1">
+    <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W594" s="5"/>
     </row>
-    <row r="595" ht="12.75" customHeight="1">
+    <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W595" s="5"/>
     </row>
-    <row r="596" ht="12.75" customHeight="1">
+    <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W596" s="5"/>
     </row>
-    <row r="597" ht="12.75" customHeight="1">
+    <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W597" s="5"/>
     </row>
-    <row r="598" ht="12.75" customHeight="1">
+    <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W598" s="5"/>
     </row>
-    <row r="599" ht="12.75" customHeight="1">
+    <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W599" s="5"/>
     </row>
-    <row r="600" ht="12.75" customHeight="1">
+    <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W600" s="5"/>
     </row>
-    <row r="601" ht="12.75" customHeight="1">
+    <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W601" s="5"/>
     </row>
-    <row r="602" ht="12.75" customHeight="1">
+    <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W602" s="5"/>
     </row>
-    <row r="603" ht="12.75" customHeight="1">
+    <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W603" s="5"/>
     </row>
-    <row r="604" ht="12.75" customHeight="1">
+    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W604" s="5"/>
     </row>
-    <row r="605" ht="12.75" customHeight="1">
+    <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W605" s="5"/>
     </row>
-    <row r="606" ht="12.75" customHeight="1">
+    <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W606" s="5"/>
     </row>
-    <row r="607" ht="12.75" customHeight="1">
+    <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W607" s="5"/>
     </row>
-    <row r="608" ht="12.75" customHeight="1">
+    <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W608" s="5"/>
     </row>
-    <row r="609" ht="12.75" customHeight="1">
+    <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W609" s="5"/>
     </row>
-    <row r="610" ht="12.75" customHeight="1">
+    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W610" s="5"/>
     </row>
-    <row r="611" ht="12.75" customHeight="1">
+    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W611" s="5"/>
     </row>
-    <row r="612" ht="12.75" customHeight="1">
+    <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W612" s="5"/>
     </row>
-    <row r="613" ht="12.75" customHeight="1">
+    <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W613" s="5"/>
     </row>
-    <row r="614" ht="12.75" customHeight="1">
+    <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W614" s="5"/>
     </row>
-    <row r="615" ht="12.75" customHeight="1">
+    <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W615" s="5"/>
     </row>
-    <row r="616" ht="12.75" customHeight="1">
+    <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W616" s="5"/>
     </row>
-    <row r="617" ht="12.75" customHeight="1">
+    <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W617" s="5"/>
     </row>
-    <row r="618" ht="12.75" customHeight="1">
+    <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W618" s="5"/>
     </row>
-    <row r="619" ht="12.75" customHeight="1">
+    <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W619" s="5"/>
     </row>
-    <row r="620" ht="12.75" customHeight="1">
+    <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W620" s="5"/>
     </row>
-    <row r="621" ht="12.75" customHeight="1">
+    <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W621" s="5"/>
     </row>
-    <row r="622" ht="12.75" customHeight="1">
+    <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W622" s="5"/>
     </row>
-    <row r="623" ht="12.75" customHeight="1">
+    <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W623" s="5"/>
     </row>
-    <row r="624" ht="12.75" customHeight="1">
+    <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W624" s="5"/>
     </row>
-    <row r="625" ht="12.75" customHeight="1">
+    <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W625" s="5"/>
     </row>
-    <row r="626" ht="12.75" customHeight="1">
+    <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W626" s="5"/>
     </row>
-    <row r="627" ht="12.75" customHeight="1">
+    <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W627" s="5"/>
     </row>
-    <row r="628" ht="12.75" customHeight="1">
+    <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W628" s="5"/>
     </row>
-    <row r="629" ht="12.75" customHeight="1">
+    <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W629" s="5"/>
     </row>
-    <row r="630" ht="12.75" customHeight="1">
+    <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W630" s="5"/>
     </row>
-    <row r="631" ht="12.75" customHeight="1">
+    <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W631" s="5"/>
     </row>
-    <row r="632" ht="12.75" customHeight="1">
+    <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W632" s="5"/>
     </row>
-    <row r="633" ht="12.75" customHeight="1">
+    <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W633" s="5"/>
     </row>
-    <row r="634" ht="12.75" customHeight="1">
+    <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W634" s="5"/>
     </row>
-    <row r="635" ht="12.75" customHeight="1">
+    <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W635" s="5"/>
     </row>
-    <row r="636" ht="12.75" customHeight="1">
+    <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W636" s="5"/>
     </row>
-    <row r="637" ht="12.75" customHeight="1">
+    <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W637" s="5"/>
     </row>
-    <row r="638" ht="12.75" customHeight="1">
+    <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W638" s="5"/>
     </row>
-    <row r="639" ht="12.75" customHeight="1">
+    <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W639" s="5"/>
     </row>
-    <row r="640" ht="12.75" customHeight="1">
+    <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W640" s="5"/>
     </row>
-    <row r="641" ht="12.75" customHeight="1">
+    <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W641" s="5"/>
     </row>
-    <row r="642" ht="12.75" customHeight="1">
+    <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W642" s="5"/>
     </row>
-    <row r="643" ht="12.75" customHeight="1">
+    <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W643" s="5"/>
     </row>
-    <row r="644" ht="12.75" customHeight="1">
+    <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W644" s="5"/>
     </row>
-    <row r="645" ht="12.75" customHeight="1">
+    <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W645" s="5"/>
     </row>
-    <row r="646" ht="12.75" customHeight="1">
+    <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W646" s="5"/>
     </row>
-    <row r="647" ht="12.75" customHeight="1">
+    <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W647" s="5"/>
     </row>
-    <row r="648" ht="12.75" customHeight="1">
+    <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W648" s="5"/>
     </row>
-    <row r="649" ht="12.75" customHeight="1">
+    <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W649" s="5"/>
     </row>
-    <row r="650" ht="12.75" customHeight="1">
+    <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W650" s="5"/>
     </row>
-    <row r="651" ht="12.75" customHeight="1">
+    <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W651" s="5"/>
     </row>
-    <row r="652" ht="12.75" customHeight="1">
+    <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W652" s="5"/>
     </row>
-    <row r="653" ht="12.75" customHeight="1">
+    <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W653" s="5"/>
     </row>
-    <row r="654" ht="12.75" customHeight="1">
+    <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W654" s="5"/>
     </row>
-    <row r="655" ht="12.75" customHeight="1">
+    <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W655" s="5"/>
     </row>
-    <row r="656" ht="12.75" customHeight="1">
+    <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W656" s="5"/>
     </row>
-    <row r="657" ht="12.75" customHeight="1">
+    <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W657" s="5"/>
     </row>
-    <row r="658" ht="12.75" customHeight="1">
+    <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W658" s="5"/>
     </row>
-    <row r="659" ht="12.75" customHeight="1">
+    <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W659" s="5"/>
     </row>
-    <row r="660" ht="12.75" customHeight="1">
+    <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W660" s="5"/>
     </row>
-    <row r="661" ht="12.75" customHeight="1">
+    <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W661" s="5"/>
     </row>
-    <row r="662" ht="12.75" customHeight="1">
+    <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W662" s="5"/>
     </row>
-    <row r="663" ht="12.75" customHeight="1">
+    <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W663" s="5"/>
     </row>
-    <row r="664" ht="12.75" customHeight="1">
+    <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W664" s="5"/>
     </row>
-    <row r="665" ht="12.75" customHeight="1">
+    <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W665" s="5"/>
     </row>
-    <row r="666" ht="12.75" customHeight="1">
+    <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W666" s="5"/>
     </row>
-    <row r="667" ht="12.75" customHeight="1">
+    <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W667" s="5"/>
     </row>
-    <row r="668" ht="12.75" customHeight="1">
+    <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W668" s="5"/>
     </row>
-    <row r="669" ht="12.75" customHeight="1">
+    <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W669" s="5"/>
     </row>
-    <row r="670" ht="12.75" customHeight="1">
+    <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W670" s="5"/>
     </row>
-    <row r="671" ht="12.75" customHeight="1">
+    <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W671" s="5"/>
     </row>
-    <row r="672" ht="12.75" customHeight="1">
+    <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W672" s="5"/>
     </row>
-    <row r="673" ht="12.75" customHeight="1">
+    <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W673" s="5"/>
     </row>
-    <row r="674" ht="12.75" customHeight="1">
+    <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W674" s="5"/>
     </row>
-    <row r="675" ht="12.75" customHeight="1">
+    <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W675" s="5"/>
     </row>
-    <row r="676" ht="12.75" customHeight="1">
+    <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W676" s="5"/>
     </row>
-    <row r="677" ht="12.75" customHeight="1">
+    <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W677" s="5"/>
     </row>
-    <row r="678" ht="12.75" customHeight="1">
+    <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W678" s="5"/>
     </row>
-    <row r="679" ht="12.75" customHeight="1">
+    <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W679" s="5"/>
     </row>
-    <row r="680" ht="12.75" customHeight="1">
+    <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W680" s="5"/>
     </row>
-    <row r="681" ht="12.75" customHeight="1">
+    <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W681" s="5"/>
     </row>
-    <row r="682" ht="12.75" customHeight="1">
+    <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W682" s="5"/>
     </row>
-    <row r="683" ht="12.75" customHeight="1">
+    <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W683" s="5"/>
     </row>
-    <row r="684" ht="12.75" customHeight="1">
+    <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W684" s="5"/>
     </row>
-    <row r="685" ht="12.75" customHeight="1">
+    <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W685" s="5"/>
     </row>
-    <row r="686" ht="12.75" customHeight="1">
+    <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W686" s="5"/>
     </row>
-    <row r="687" ht="12.75" customHeight="1">
+    <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W687" s="5"/>
     </row>
-    <row r="688" ht="12.75" customHeight="1">
+    <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W688" s="5"/>
     </row>
-    <row r="689" ht="12.75" customHeight="1">
+    <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W689" s="5"/>
     </row>
-    <row r="690" ht="12.75" customHeight="1">
+    <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W690" s="5"/>
     </row>
-    <row r="691" ht="12.75" customHeight="1">
+    <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W691" s="5"/>
     </row>
-    <row r="692" ht="12.75" customHeight="1">
+    <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W692" s="5"/>
     </row>
-    <row r="693" ht="12.75" customHeight="1">
+    <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W693" s="5"/>
     </row>
-    <row r="694" ht="12.75" customHeight="1">
+    <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W694" s="5"/>
     </row>
-    <row r="695" ht="12.75" customHeight="1">
+    <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W695" s="5"/>
     </row>
-    <row r="696" ht="12.75" customHeight="1">
+    <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W696" s="5"/>
     </row>
-    <row r="697" ht="12.75" customHeight="1">
+    <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W697" s="5"/>
     </row>
-    <row r="698" ht="12.75" customHeight="1">
+    <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W698" s="5"/>
     </row>
-    <row r="699" ht="12.75" customHeight="1">
+    <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W699" s="5"/>
     </row>
-    <row r="700" ht="12.75" customHeight="1">
+    <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W700" s="5"/>
     </row>
-    <row r="701" ht="12.75" customHeight="1">
+    <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W701" s="5"/>
     </row>
-    <row r="702" ht="12.75" customHeight="1">
+    <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W702" s="5"/>
     </row>
-    <row r="703" ht="12.75" customHeight="1">
+    <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W703" s="5"/>
     </row>
-    <row r="704" ht="12.75" customHeight="1">
+    <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W704" s="5"/>
     </row>
-    <row r="705" ht="12.75" customHeight="1">
+    <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W705" s="5"/>
     </row>
-    <row r="706" ht="12.75" customHeight="1">
+    <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W706" s="5"/>
     </row>
-    <row r="707" ht="12.75" customHeight="1">
+    <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W707" s="5"/>
     </row>
-    <row r="708" ht="12.75" customHeight="1">
+    <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W708" s="5"/>
     </row>
-    <row r="709" ht="12.75" customHeight="1">
+    <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W709" s="5"/>
     </row>
-    <row r="710" ht="12.75" customHeight="1">
+    <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W710" s="5"/>
     </row>
-    <row r="711" ht="12.75" customHeight="1">
+    <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W711" s="5"/>
     </row>
-    <row r="712" ht="12.75" customHeight="1">
+    <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W712" s="5"/>
     </row>
-    <row r="713" ht="12.75" customHeight="1">
+    <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W713" s="5"/>
     </row>
-    <row r="714" ht="12.75" customHeight="1">
+    <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W714" s="5"/>
     </row>
-    <row r="715" ht="12.75" customHeight="1">
+    <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W715" s="5"/>
     </row>
-    <row r="716" ht="12.75" customHeight="1">
+    <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W716" s="5"/>
     </row>
-    <row r="717" ht="12.75" customHeight="1">
+    <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W717" s="5"/>
     </row>
-    <row r="718" ht="12.75" customHeight="1">
+    <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W718" s="5"/>
     </row>
-    <row r="719" ht="12.75" customHeight="1">
+    <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W719" s="5"/>
     </row>
-    <row r="720" ht="12.75" customHeight="1">
+    <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W720" s="5"/>
     </row>
-    <row r="721" ht="12.75" customHeight="1">
+    <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W721" s="5"/>
     </row>
-    <row r="722" ht="12.75" customHeight="1">
+    <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W722" s="5"/>
     </row>
-    <row r="723" ht="12.75" customHeight="1">
+    <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W723" s="5"/>
     </row>
-    <row r="724" ht="12.75" customHeight="1">
+    <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W724" s="5"/>
     </row>
-    <row r="725" ht="12.75" customHeight="1">
+    <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W725" s="5"/>
     </row>
-    <row r="726" ht="12.75" customHeight="1">
+    <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W726" s="5"/>
     </row>
-    <row r="727" ht="12.75" customHeight="1">
+    <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W727" s="5"/>
     </row>
-    <row r="728" ht="12.75" customHeight="1">
+    <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W728" s="5"/>
     </row>
-    <row r="729" ht="12.75" customHeight="1">
+    <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W729" s="5"/>
     </row>
-    <row r="730" ht="12.75" customHeight="1">
+    <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W730" s="5"/>
     </row>
-    <row r="731" ht="12.75" customHeight="1">
+    <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W731" s="5"/>
     </row>
-    <row r="732" ht="12.75" customHeight="1">
+    <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W732" s="5"/>
     </row>
-    <row r="733" ht="12.75" customHeight="1">
+    <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W733" s="5"/>
     </row>
-    <row r="734" ht="12.75" customHeight="1">
+    <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W734" s="5"/>
     </row>
-    <row r="735" ht="12.75" customHeight="1">
+    <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W735" s="5"/>
     </row>
-    <row r="736" ht="12.75" customHeight="1">
+    <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W736" s="5"/>
     </row>
-    <row r="737" ht="12.75" customHeight="1">
+    <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W737" s="5"/>
     </row>
-    <row r="738" ht="12.75" customHeight="1">
+    <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W738" s="5"/>
     </row>
-    <row r="739" ht="12.75" customHeight="1">
+    <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W739" s="5"/>
     </row>
-    <row r="740" ht="12.75" customHeight="1">
+    <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W740" s="5"/>
     </row>
-    <row r="741" ht="12.75" customHeight="1">
+    <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W741" s="5"/>
     </row>
-    <row r="742" ht="12.75" customHeight="1">
+    <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W742" s="5"/>
     </row>
-    <row r="743" ht="12.75" customHeight="1">
+    <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W743" s="5"/>
     </row>
-    <row r="744" ht="12.75" customHeight="1">
+    <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W744" s="5"/>
     </row>
-    <row r="745" ht="12.75" customHeight="1">
+    <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W745" s="5"/>
     </row>
-    <row r="746" ht="12.75" customHeight="1">
+    <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W746" s="5"/>
     </row>
-    <row r="747" ht="12.75" customHeight="1">
+    <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W747" s="5"/>
     </row>
-    <row r="748" ht="12.75" customHeight="1">
+    <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W748" s="5"/>
     </row>
-    <row r="749" ht="12.75" customHeight="1">
+    <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W749" s="5"/>
     </row>
-    <row r="750" ht="12.75" customHeight="1">
+    <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W750" s="5"/>
     </row>
-    <row r="751" ht="12.75" customHeight="1">
+    <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W751" s="5"/>
     </row>
-    <row r="752" ht="12.75" customHeight="1">
+    <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W752" s="5"/>
     </row>
-    <row r="753" ht="12.75" customHeight="1">
+    <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W753" s="5"/>
     </row>
-    <row r="754" ht="12.75" customHeight="1">
+    <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W754" s="5"/>
     </row>
-    <row r="755" ht="12.75" customHeight="1">
+    <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W755" s="5"/>
     </row>
-    <row r="756" ht="12.75" customHeight="1">
+    <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W756" s="5"/>
     </row>
-    <row r="757" ht="12.75" customHeight="1">
+    <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W757" s="5"/>
     </row>
-    <row r="758" ht="12.75" customHeight="1">
+    <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W758" s="5"/>
     </row>
-    <row r="759" ht="12.75" customHeight="1">
+    <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W759" s="5"/>
     </row>
-    <row r="760" ht="12.75" customHeight="1">
+    <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W760" s="5"/>
     </row>
-    <row r="761" ht="12.75" customHeight="1">
+    <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W761" s="5"/>
     </row>
-    <row r="762" ht="12.75" customHeight="1">
+    <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W762" s="5"/>
     </row>
-    <row r="763" ht="12.75" customHeight="1">
+    <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W763" s="5"/>
     </row>
-    <row r="764" ht="12.75" customHeight="1">
+    <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W764" s="5"/>
     </row>
-    <row r="765" ht="12.75" customHeight="1">
+    <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W765" s="5"/>
     </row>
-    <row r="766" ht="12.75" customHeight="1">
+    <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W766" s="5"/>
     </row>
-    <row r="767" ht="12.75" customHeight="1">
+    <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W767" s="5"/>
     </row>
-    <row r="768" ht="12.75" customHeight="1">
+    <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W768" s="5"/>
     </row>
-    <row r="769" ht="12.75" customHeight="1">
+    <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W769" s="5"/>
     </row>
-    <row r="770" ht="12.75" customHeight="1">
+    <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W770" s="5"/>
     </row>
-    <row r="771" ht="12.75" customHeight="1">
+    <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W771" s="5"/>
     </row>
-    <row r="772" ht="12.75" customHeight="1">
+    <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W772" s="5"/>
     </row>
-    <row r="773" ht="12.75" customHeight="1">
+    <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W773" s="5"/>
     </row>
-    <row r="774" ht="12.75" customHeight="1">
+    <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W774" s="5"/>
     </row>
-    <row r="775" ht="12.75" customHeight="1">
+    <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W775" s="5"/>
     </row>
-    <row r="776" ht="12.75" customHeight="1">
+    <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W776" s="5"/>
     </row>
-    <row r="777" ht="12.75" customHeight="1">
+    <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W777" s="5"/>
     </row>
-    <row r="778" ht="12.75" customHeight="1">
+    <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W778" s="5"/>
     </row>
-    <row r="779" ht="12.75" customHeight="1">
+    <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W779" s="5"/>
     </row>
-    <row r="780" ht="12.75" customHeight="1">
+    <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W780" s="5"/>
     </row>
-    <row r="781" ht="12.75" customHeight="1">
+    <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W781" s="5"/>
     </row>
-    <row r="782" ht="12.75" customHeight="1">
+    <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W782" s="5"/>
     </row>
-    <row r="783" ht="12.75" customHeight="1">
+    <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W783" s="5"/>
     </row>
-    <row r="784" ht="12.75" customHeight="1">
+    <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W784" s="5"/>
     </row>
-    <row r="785" ht="12.75" customHeight="1">
+    <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W785" s="5"/>
     </row>
-    <row r="786" ht="12.75" customHeight="1">
+    <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W786" s="5"/>
     </row>
-    <row r="787" ht="12.75" customHeight="1">
+    <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W787" s="5"/>
     </row>
-    <row r="788" ht="12.75" customHeight="1">
+    <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W788" s="5"/>
     </row>
-    <row r="789" ht="12.75" customHeight="1">
+    <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W789" s="5"/>
     </row>
-    <row r="790" ht="12.75" customHeight="1">
+    <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W790" s="5"/>
     </row>
-    <row r="791" ht="12.75" customHeight="1">
+    <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W791" s="5"/>
     </row>
-    <row r="792" ht="12.75" customHeight="1">
+    <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W792" s="5"/>
     </row>
-    <row r="793" ht="12.75" customHeight="1">
+    <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W793" s="5"/>
     </row>
-    <row r="794" ht="12.75" customHeight="1">
+    <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W794" s="5"/>
     </row>
-    <row r="795" ht="12.75" customHeight="1">
+    <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W795" s="5"/>
     </row>
-    <row r="796" ht="12.75" customHeight="1">
+    <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W796" s="5"/>
     </row>
-    <row r="797" ht="12.75" customHeight="1">
+    <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W797" s="5"/>
     </row>
-    <row r="798" ht="12.75" customHeight="1">
+    <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W798" s="5"/>
     </row>
-    <row r="799" ht="12.75" customHeight="1">
+    <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W799" s="5"/>
     </row>
-    <row r="800" ht="12.75" customHeight="1">
+    <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W800" s="5"/>
     </row>
-    <row r="801" ht="12.75" customHeight="1">
+    <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W801" s="5"/>
     </row>
-    <row r="802" ht="12.75" customHeight="1">
+    <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W802" s="5"/>
     </row>
-    <row r="803" ht="12.75" customHeight="1">
+    <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W803" s="5"/>
     </row>
-    <row r="804" ht="12.75" customHeight="1">
+    <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W804" s="5"/>
     </row>
-    <row r="805" ht="12.75" customHeight="1">
+    <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W805" s="5"/>
     </row>
-    <row r="806" ht="12.75" customHeight="1">
+    <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W806" s="5"/>
     </row>
-    <row r="807" ht="12.75" customHeight="1">
+    <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W807" s="5"/>
     </row>
-    <row r="808" ht="12.75" customHeight="1">
+    <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W808" s="5"/>
     </row>
-    <row r="809" ht="12.75" customHeight="1">
+    <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W809" s="5"/>
     </row>
-    <row r="810" ht="12.75" customHeight="1">
+    <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W810" s="5"/>
     </row>
-    <row r="811" ht="12.75" customHeight="1">
+    <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W811" s="5"/>
     </row>
-    <row r="812" ht="12.75" customHeight="1">
+    <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W812" s="5"/>
     </row>
-    <row r="813" ht="12.75" customHeight="1">
+    <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W813" s="5"/>
     </row>
-    <row r="814" ht="12.75" customHeight="1">
+    <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W814" s="5"/>
     </row>
-    <row r="815" ht="12.75" customHeight="1">
+    <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W815" s="5"/>
     </row>
-    <row r="816" ht="12.75" customHeight="1">
+    <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W816" s="5"/>
     </row>
-    <row r="817" ht="12.75" customHeight="1">
+    <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W817" s="5"/>
     </row>
-    <row r="818" ht="12.75" customHeight="1">
+    <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W818" s="5"/>
     </row>
-    <row r="819" ht="12.75" customHeight="1">
+    <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W819" s="5"/>
     </row>
-    <row r="820" ht="12.75" customHeight="1">
+    <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W820" s="5"/>
     </row>
-    <row r="821" ht="12.75" customHeight="1">
+    <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W821" s="5"/>
     </row>
-    <row r="822" ht="12.75" customHeight="1">
+    <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W822" s="5"/>
     </row>
-    <row r="823" ht="12.75" customHeight="1">
+    <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W823" s="5"/>
     </row>
-    <row r="824" ht="12.75" customHeight="1">
+    <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W824" s="5"/>
     </row>
-    <row r="825" ht="12.75" customHeight="1">
+    <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W825" s="5"/>
     </row>
-    <row r="826" ht="12.75" customHeight="1">
+    <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W826" s="5"/>
     </row>
-    <row r="827" ht="12.75" customHeight="1">
+    <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W827" s="5"/>
     </row>
-    <row r="828" ht="12.75" customHeight="1">
+    <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W828" s="5"/>
     </row>
-    <row r="829" ht="12.75" customHeight="1">
+    <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W829" s="5"/>
     </row>
-    <row r="830" ht="12.75" customHeight="1">
+    <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W830" s="5"/>
     </row>
-    <row r="831" ht="12.75" customHeight="1">
+    <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W831" s="5"/>
     </row>
-    <row r="832" ht="12.75" customHeight="1">
+    <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W832" s="5"/>
     </row>
-    <row r="833" ht="12.75" customHeight="1">
+    <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W833" s="5"/>
     </row>
-    <row r="834" ht="12.75" customHeight="1">
+    <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W834" s="5"/>
     </row>
-    <row r="835" ht="12.75" customHeight="1">
+    <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W835" s="5"/>
     </row>
-    <row r="836" ht="12.75" customHeight="1">
+    <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W836" s="5"/>
     </row>
-    <row r="837" ht="12.75" customHeight="1">
+    <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W837" s="5"/>
     </row>
-    <row r="838" ht="12.75" customHeight="1">
+    <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W838" s="5"/>
     </row>
-    <row r="839" ht="12.75" customHeight="1">
+    <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W839" s="5"/>
     </row>
-    <row r="840" ht="12.75" customHeight="1">
+    <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W840" s="5"/>
     </row>
-    <row r="841" ht="12.75" customHeight="1">
+    <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W841" s="5"/>
     </row>
-    <row r="842" ht="12.75" customHeight="1">
+    <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W842" s="5"/>
     </row>
-    <row r="843" ht="12.75" customHeight="1">
+    <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W843" s="5"/>
     </row>
-    <row r="844" ht="12.75" customHeight="1">
+    <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W844" s="5"/>
     </row>
-    <row r="845" ht="12.75" customHeight="1">
+    <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W845" s="5"/>
     </row>
-    <row r="846" ht="12.75" customHeight="1">
+    <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W846" s="5"/>
     </row>
-    <row r="847" ht="12.75" customHeight="1">
+    <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W847" s="5"/>
     </row>
-    <row r="848" ht="12.75" customHeight="1">
+    <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W848" s="5"/>
     </row>
-    <row r="849" ht="12.75" customHeight="1">
+    <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W849" s="5"/>
     </row>
-    <row r="850" ht="12.75" customHeight="1">
+    <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W850" s="5"/>
     </row>
-    <row r="851" ht="12.75" customHeight="1">
+    <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W851" s="5"/>
     </row>
-    <row r="852" ht="12.75" customHeight="1">
+    <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W852" s="5"/>
     </row>
-    <row r="853" ht="12.75" customHeight="1">
+    <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W853" s="5"/>
     </row>
-    <row r="854" ht="12.75" customHeight="1">
+    <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W854" s="5"/>
     </row>
-    <row r="855" ht="12.75" customHeight="1">
+    <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W855" s="5"/>
     </row>
-    <row r="856" ht="12.75" customHeight="1">
+    <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W856" s="5"/>
     </row>
-    <row r="857" ht="12.75" customHeight="1">
+    <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W857" s="5"/>
     </row>
-    <row r="858" ht="12.75" customHeight="1">
+    <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W858" s="5"/>
     </row>
-    <row r="859" ht="12.75" customHeight="1">
+    <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W859" s="5"/>
     </row>
-    <row r="860" ht="12.75" customHeight="1">
+    <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W860" s="5"/>
     </row>
-    <row r="861" ht="12.75" customHeight="1">
+    <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W861" s="5"/>
     </row>
-    <row r="862" ht="12.75" customHeight="1">
+    <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W862" s="5"/>
     </row>
-    <row r="863" ht="12.75" customHeight="1">
+    <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W863" s="5"/>
     </row>
-    <row r="864" ht="12.75" customHeight="1">
+    <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W864" s="5"/>
     </row>
-    <row r="865" ht="12.75" customHeight="1">
+    <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W865" s="5"/>
     </row>
-    <row r="866" ht="12.75" customHeight="1">
+    <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W866" s="5"/>
     </row>
-    <row r="867" ht="12.75" customHeight="1">
+    <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W867" s="5"/>
     </row>
-    <row r="868" ht="12.75" customHeight="1">
+    <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W868" s="5"/>
     </row>
-    <row r="869" ht="12.75" customHeight="1">
+    <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W869" s="5"/>
     </row>
-    <row r="870" ht="12.75" customHeight="1">
+    <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W870" s="5"/>
     </row>
-    <row r="871" ht="12.75" customHeight="1">
+    <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W871" s="5"/>
     </row>
-    <row r="872" ht="12.75" customHeight="1">
+    <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W872" s="5"/>
     </row>
-    <row r="873" ht="12.75" customHeight="1">
+    <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W873" s="5"/>
     </row>
-    <row r="874" ht="12.75" customHeight="1">
+    <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W874" s="5"/>
     </row>
-    <row r="875" ht="12.75" customHeight="1">
+    <row r="875" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W875" s="5"/>
     </row>
-    <row r="876" ht="12.75" customHeight="1">
+    <row r="876" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W876" s="5"/>
     </row>
-    <row r="877" ht="12.75" customHeight="1">
+    <row r="877" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W877" s="5"/>
     </row>
-    <row r="878" ht="12.75" customHeight="1">
+    <row r="878" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W878" s="5"/>
     </row>
-    <row r="879" ht="12.75" customHeight="1">
+    <row r="879" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W879" s="5"/>
     </row>
-    <row r="880" ht="12.75" customHeight="1">
+    <row r="880" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W880" s="5"/>
     </row>
-    <row r="881" ht="12.75" customHeight="1">
+    <row r="881" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W881" s="5"/>
     </row>
-    <row r="882" ht="12.75" customHeight="1">
+    <row r="882" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W882" s="5"/>
     </row>
-    <row r="883" ht="12.75" customHeight="1">
+    <row r="883" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W883" s="5"/>
     </row>
-    <row r="884" ht="12.75" customHeight="1">
+    <row r="884" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W884" s="5"/>
     </row>
-    <row r="885" ht="12.75" customHeight="1">
+    <row r="885" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W885" s="5"/>
     </row>
-    <row r="886" ht="12.75" customHeight="1">
+    <row r="886" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W886" s="5"/>
     </row>
-    <row r="887" ht="12.75" customHeight="1">
+    <row r="887" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W887" s="5"/>
     </row>
-    <row r="888" ht="12.75" customHeight="1">
+    <row r="888" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W888" s="5"/>
     </row>
-    <row r="889" ht="12.75" customHeight="1">
+    <row r="889" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W889" s="5"/>
     </row>
-    <row r="890" ht="12.75" customHeight="1">
+    <row r="890" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W890" s="5"/>
     </row>
-    <row r="891" ht="12.75" customHeight="1">
+    <row r="891" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W891" s="5"/>
     </row>
-    <row r="892" ht="12.75" customHeight="1">
+    <row r="892" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W892" s="5"/>
     </row>
-    <row r="893" ht="12.75" customHeight="1">
+    <row r="893" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W893" s="5"/>
     </row>
-    <row r="894" ht="12.75" customHeight="1">
+    <row r="894" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W894" s="5"/>
     </row>
-    <row r="895" ht="12.75" customHeight="1">
+    <row r="895" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W895" s="5"/>
     </row>
-    <row r="896" ht="12.75" customHeight="1">
+    <row r="896" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W896" s="5"/>
     </row>
-    <row r="897" ht="12.75" customHeight="1">
+    <row r="897" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W897" s="5"/>
     </row>
-    <row r="898" ht="12.75" customHeight="1">
+    <row r="898" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W898" s="5"/>
     </row>
-    <row r="899" ht="12.75" customHeight="1">
+    <row r="899" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W899" s="5"/>
     </row>
-    <row r="900" ht="12.75" customHeight="1">
+    <row r="900" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W900" s="5"/>
     </row>
-    <row r="901" ht="12.75" customHeight="1">
+    <row r="901" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W901" s="5"/>
     </row>
-    <row r="902" ht="12.75" customHeight="1">
+    <row r="902" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W902" s="5"/>
     </row>
-    <row r="903" ht="12.75" customHeight="1">
+    <row r="903" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W903" s="5"/>
     </row>
-    <row r="904" ht="12.75" customHeight="1">
+    <row r="904" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W904" s="5"/>
     </row>
-    <row r="905" ht="12.75" customHeight="1">
+    <row r="905" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W905" s="5"/>
     </row>
-    <row r="906" ht="12.75" customHeight="1">
+    <row r="906" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W906" s="5"/>
     </row>
-    <row r="907" ht="12.75" customHeight="1">
+    <row r="907" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W907" s="5"/>
     </row>
-    <row r="908" ht="12.75" customHeight="1">
+    <row r="908" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W908" s="5"/>
     </row>
-    <row r="909" ht="12.75" customHeight="1">
+    <row r="909" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W909" s="5"/>
     </row>
-    <row r="910" ht="12.75" customHeight="1">
+    <row r="910" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W910" s="5"/>
     </row>
-    <row r="911" ht="12.75" customHeight="1">
+    <row r="911" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W911" s="5"/>
     </row>
-    <row r="912" ht="12.75" customHeight="1">
+    <row r="912" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W912" s="5"/>
     </row>
-    <row r="913" ht="12.75" customHeight="1">
+    <row r="913" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W913" s="5"/>
     </row>
-    <row r="914" ht="12.75" customHeight="1">
+    <row r="914" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W914" s="5"/>
     </row>
-    <row r="915" ht="12.75" customHeight="1">
+    <row r="915" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W915" s="5"/>
     </row>
-    <row r="916" ht="12.75" customHeight="1">
+    <row r="916" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W916" s="5"/>
     </row>
-    <row r="917" ht="12.75" customHeight="1">
+    <row r="917" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W917" s="5"/>
     </row>
-    <row r="918" ht="12.75" customHeight="1">
+    <row r="918" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W918" s="5"/>
     </row>
-    <row r="919" ht="12.75" customHeight="1">
+    <row r="919" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W919" s="5"/>
     </row>
-    <row r="920" ht="12.75" customHeight="1">
+    <row r="920" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W920" s="5"/>
     </row>
-    <row r="921" ht="12.75" customHeight="1">
+    <row r="921" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W921" s="5"/>
     </row>
-    <row r="922" ht="12.75" customHeight="1">
+    <row r="922" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W922" s="5"/>
     </row>
-    <row r="923" ht="12.75" customHeight="1">
+    <row r="923" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W923" s="5"/>
     </row>
-    <row r="924" ht="12.75" customHeight="1">
+    <row r="924" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W924" s="5"/>
     </row>
-    <row r="925" ht="12.75" customHeight="1">
+    <row r="925" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W925" s="5"/>
     </row>
-    <row r="926" ht="12.75" customHeight="1">
+    <row r="926" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W926" s="5"/>
     </row>
-    <row r="927" ht="12.75" customHeight="1">
+    <row r="927" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W927" s="5"/>
     </row>
-    <row r="928" ht="12.75" customHeight="1">
+    <row r="928" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W928" s="5"/>
     </row>
-    <row r="929" ht="12.75" customHeight="1">
+    <row r="929" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W929" s="5"/>
     </row>
-    <row r="930" ht="12.75" customHeight="1">
+    <row r="930" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W930" s="5"/>
     </row>
-    <row r="931" ht="12.75" customHeight="1">
+    <row r="931" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W931" s="5"/>
     </row>
-    <row r="932" ht="12.75" customHeight="1">
+    <row r="932" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W932" s="5"/>
     </row>
-    <row r="933" ht="12.75" customHeight="1">
+    <row r="933" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W933" s="5"/>
     </row>
-    <row r="934" ht="12.75" customHeight="1">
+    <row r="934" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W934" s="5"/>
     </row>
-    <row r="935" ht="12.75" customHeight="1">
+    <row r="935" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W935" s="5"/>
     </row>
-    <row r="936" ht="12.75" customHeight="1">
+    <row r="936" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W936" s="5"/>
     </row>
-    <row r="937" ht="12.75" customHeight="1">
+    <row r="937" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W937" s="5"/>
     </row>
-    <row r="938" ht="12.75" customHeight="1">
+    <row r="938" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W938" s="5"/>
     </row>
-    <row r="939" ht="12.75" customHeight="1">
+    <row r="939" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W939" s="5"/>
     </row>
-    <row r="940" ht="12.75" customHeight="1">
+    <row r="940" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W940" s="5"/>
     </row>
-    <row r="941" ht="12.75" customHeight="1">
+    <row r="941" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W941" s="5"/>
     </row>
-    <row r="942" ht="12.75" customHeight="1">
+    <row r="942" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W942" s="5"/>
     </row>
-    <row r="943" ht="12.75" customHeight="1">
+    <row r="943" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W943" s="5"/>
     </row>
-    <row r="944" ht="12.75" customHeight="1">
+    <row r="944" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W944" s="5"/>
     </row>
-    <row r="945" ht="12.75" customHeight="1">
+    <row r="945" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W945" s="5"/>
     </row>
-    <row r="946" ht="12.75" customHeight="1">
+    <row r="946" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W946" s="5"/>
     </row>
-    <row r="947" ht="12.75" customHeight="1">
+    <row r="947" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W947" s="5"/>
     </row>
-    <row r="948" ht="12.75" customHeight="1">
+    <row r="948" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W948" s="5"/>
     </row>
-    <row r="949" ht="12.75" customHeight="1">
+    <row r="949" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W949" s="5"/>
     </row>
-    <row r="950" ht="12.75" customHeight="1">
+    <row r="950" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W950" s="5"/>
     </row>
-    <row r="951" ht="12.75" customHeight="1">
+    <row r="951" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W951" s="5"/>
     </row>
-    <row r="952" ht="12.75" customHeight="1">
+    <row r="952" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W952" s="5"/>
     </row>
-    <row r="953" ht="12.75" customHeight="1">
+    <row r="953" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W953" s="5"/>
     </row>
-    <row r="954" ht="12.75" customHeight="1">
+    <row r="954" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W954" s="5"/>
     </row>
-    <row r="955" ht="12.75" customHeight="1">
+    <row r="955" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W955" s="5"/>
     </row>
-    <row r="956" ht="12.75" customHeight="1">
+    <row r="956" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W956" s="5"/>
     </row>
-    <row r="957" ht="12.75" customHeight="1">
+    <row r="957" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W957" s="5"/>
     </row>
-    <row r="958" ht="12.75" customHeight="1">
+    <row r="958" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W958" s="5"/>
     </row>
-    <row r="959" ht="12.75" customHeight="1">
+    <row r="959" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W959" s="5"/>
     </row>
-    <row r="960" ht="12.75" customHeight="1">
+    <row r="960" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W960" s="5"/>
     </row>
-    <row r="961" ht="12.75" customHeight="1">
+    <row r="961" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W961" s="5"/>
     </row>
-    <row r="962" ht="12.75" customHeight="1">
+    <row r="962" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W962" s="5"/>
     </row>
-    <row r="963" ht="12.75" customHeight="1">
+    <row r="963" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W963" s="5"/>
     </row>
-    <row r="964" ht="12.75" customHeight="1">
+    <row r="964" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W964" s="5"/>
     </row>
-    <row r="965" ht="12.75" customHeight="1">
+    <row r="965" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W965" s="5"/>
     </row>
-    <row r="966" ht="12.75" customHeight="1">
+    <row r="966" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W966" s="5"/>
     </row>
-    <row r="967" ht="12.75" customHeight="1">
+    <row r="967" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W967" s="5"/>
     </row>
-    <row r="968" ht="12.75" customHeight="1">
+    <row r="968" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W968" s="5"/>
     </row>
-    <row r="969" ht="12.75" customHeight="1">
+    <row r="969" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W969" s="5"/>
     </row>
-    <row r="970" ht="12.75" customHeight="1">
+    <row r="970" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W970" s="5"/>
     </row>
-    <row r="971" ht="12.75" customHeight="1">
+    <row r="971" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W971" s="5"/>
     </row>
-    <row r="972" ht="12.75" customHeight="1">
+    <row r="972" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W972" s="5"/>
     </row>
-    <row r="973" ht="12.75" customHeight="1">
+    <row r="973" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W973" s="5"/>
     </row>
-    <row r="974" ht="12.75" customHeight="1">
+    <row r="974" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W974" s="5"/>
     </row>
-    <row r="975" ht="12.75" customHeight="1">
+    <row r="975" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W975" s="5"/>
     </row>
-    <row r="976" ht="12.75" customHeight="1">
+    <row r="976" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W976" s="5"/>
     </row>
-    <row r="977" ht="12.75" customHeight="1">
+    <row r="977" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W977" s="5"/>
     </row>
-    <row r="978" ht="12.75" customHeight="1">
+    <row r="978" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W978" s="5"/>
     </row>
-    <row r="979" ht="12.75" customHeight="1">
+    <row r="979" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W979" s="5"/>
     </row>
-    <row r="980" ht="12.75" customHeight="1">
+    <row r="980" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W980" s="5"/>
     </row>
-    <row r="981" ht="12.75" customHeight="1">
+    <row r="981" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W981" s="5"/>
     </row>
-    <row r="982" ht="12.75" customHeight="1">
+    <row r="982" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W982" s="5"/>
     </row>
-    <row r="983" ht="12.75" customHeight="1">
+    <row r="983" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W983" s="5"/>
     </row>
-    <row r="984" ht="12.75" customHeight="1">
+    <row r="984" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W984" s="5"/>
     </row>
-    <row r="985" ht="12.75" customHeight="1">
+    <row r="985" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W985" s="5"/>
     </row>
-    <row r="986" ht="12.75" customHeight="1">
+    <row r="986" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W986" s="5"/>
     </row>
-    <row r="987" ht="12.75" customHeight="1">
+    <row r="987" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W987" s="5"/>
     </row>
-    <row r="988" ht="12.75" customHeight="1">
+    <row r="988" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W988" s="5"/>
     </row>
-    <row r="989" ht="12.75" customHeight="1">
+    <row r="989" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W989" s="5"/>
     </row>
-    <row r="990" ht="12.75" customHeight="1">
+    <row r="990" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W990" s="5"/>
     </row>
-    <row r="991" ht="12.75" customHeight="1">
+    <row r="991" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W991" s="5"/>
     </row>
-    <row r="992" ht="12.75" customHeight="1">
+    <row r="992" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W992" s="5"/>
     </row>
-    <row r="993" ht="12.75" customHeight="1">
+    <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W993" s="5"/>
     </row>
-    <row r="994" ht="12.75" customHeight="1">
+    <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W994" s="5"/>
     </row>
-    <row r="995" ht="12.75" customHeight="1">
+    <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W995" s="5"/>
     </row>
-    <row r="996" ht="12.75" customHeight="1">
+    <row r="996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W996" s="5"/>
     </row>
-    <row r="997" ht="12.75" customHeight="1">
+    <row r="997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W997" s="5"/>
     </row>
-    <row r="998" ht="12.75" customHeight="1">
+    <row r="998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W998" s="5"/>
     </row>
-    <row r="999" ht="12.75" customHeight="1">
+    <row r="999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W999" s="5"/>
     </row>
-    <row r="1000" ht="12.75" customHeight="1">
+    <row r="1000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="L2:L3">
+    <cfRule type="cellIs" priority="2" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:E2">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="D2:E3">
+    <cfRule type="cellIs" priority="3" operator="lessThanOrEqual" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2">
+  <dataValidations count="5">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2:H3" type="list">
       <formula1>"F&amp;B,Grocery,Fashion,Home and Decor,Beauty &amp; Personal Care"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I2:I3" type="list">
       <formula1>"Fruits and Vegetables,Masala &amp; Seasoning,Oil &amp; Ghee,Gourmet &amp; World Foods,Foodgrains,Eggs, Meat &amp; Fish,Cleaning &amp; Household,Beverages,Beauty &amp; Hygiene,Bakery, Cakes &amp; Dairy,Kitchen Accessories,Baby Care,Snacks &amp; Branded Foods,Pet Care,Stationery,Continent"&amp;"al,Middle Eastern,North Indian,Pan-Asian,Regional Indian,South Indian,Tex-Mexican,World Cuisines,Healthy Food,Fast Food,Desserts,Bakes &amp; Cakes,Beverages (MTO),Home Decor,Home Furnishings,Furniture,Garden and Outdoor Products,Home Improvement,Cookware and "&amp;"Dining,Storage and Organisation,Pain Relieving Ointments,Nutrition and Supplements,Personal and Baby Care,Sexual Wellness,Gastric and Other Concerns,Covid Essentials,Diabetes Control,Health Devices,Audio,Camera and Camcorder,Computer Peripheral,Desktop an"&amp;"d Laptop,Earphone,Gaming,Headphone,Mobile Phone,Mobile Accessories,Safety Security,Smart Watches,Speaker,Television,Video,Air Conditioning and Air Cleaners,Health, Home and Personal Care,Heaters,Kitchen Appliances,Lighting &amp; Electric Fans,Refrigerators an"&amp;"d Freezers,Vacuum Cleaners,Washing Machines and Accessories,Water Purifiers and Coolers,Inverter &amp; Stabilizer,Bath &amp; Body,Feminine Care,Fragrance,Hair Care,Make Up,Men's Grooming,Oral Care,Skin Care,Maternity Care,Nursing &amp; Feeding,Sexual Wellness &amp; Sensu"&amp;"ality,Tools &amp; Accessories,Men's Fashion Accessories,Men's Footwear Accessories,Men's Topwear,Men's Bottomwear,Men's Innerwear &amp; Sleepwear,Men's Bags &amp; Luggage,Men's Eyewear,Men's Footwear,Men's Jewellery,Women's Fashion Accessories,Women's Footwear Access"&amp;"ories,Women's Indian &amp; Fusion Wear,Women's Western Wear,Women's Lingerie &amp; Sleepwear,Women's Bags &amp; Luggage,Women's Eyewear,Women's Footwear,Women's Jewellery,Boy's Clothing,Boy's Footwear,Girl's Clothing,Girl's Footwear,Infant's Wear,Infant Care &amp; Access"&amp;"ories,Infant Feeding &amp; Nursing Essentials,Infant Bath Accessories,Infant Health &amp; Safety,Infant Diapers &amp; Toilet Training,Kid's Towels &amp; Wrappers,Kid's Fashion Accessories,Kid's Jewellery,Kid's Eyewear,Kid's Bags &amp; Luggage"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S2 U2 AA2 AC2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S3 U2:U3 AA2:AA3 AC2:AC3" type="list">
       <formula1>"Yes,No"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2:M3" type="list">
       <formula1>"Kilogram,Grams,Meter,Centemeter"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G3" type="list">
       <formula1>"0,5,12,18,28"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AE2"/>
+    <hyperlink ref="AE2" r:id="rId1" display="https://media.wired.com/photos/63b8d0a771c6b526845f15a6/master/pass/CES-2023-PEUGEOT_INCEPTION_CONCEPT_2301CN202.jpg,https://media.wired.com/photos/63b8d0a771c6b526845f15a6/master/pass/CES-2023-PEUGEOT_INCEPTION_CONCEPT_2301CN202.jpg"/>
+    <hyperlink ref="AE3" r:id="rId2" display="https://media.wired.com/photos/63b8d0a771c6b526845f15a6/master/pass/CES-2023-PEUGEOT_INCEPTION_CONCEPT_2301CN202.jpg,https://media.wired.com/photos/63b8d0a771c6b526845f15a6/master/pass/CES-2023-PEUGEOT_INCEPTION_CONCEPT_2301CN202.jpg"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>